--- a/teaching/traditional_assets/database/data/norway/norway_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_healthcare_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ob_medi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.126</v>
+        <v>0.08109999999999999</v>
       </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>0.127</v>
       </c>
       <c r="G2">
-        <v>0.2055450395278922</v>
+        <v>0.2485540301634764</v>
       </c>
       <c r="H2">
-        <v>0.131611179155996</v>
+        <v>0.1404500512910055</v>
       </c>
       <c r="I2">
-        <v>0.1324571874913965</v>
+        <v>0.0990025536372962</v>
       </c>
       <c r="J2">
-        <v>0.1225925080626078</v>
+        <v>0.09347718175998532</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>2.513</v>
       </c>
       <c r="L2">
-        <v>0.05567308762943993</v>
+        <v>0.0548486369688107</v>
       </c>
       <c r="M2">
-        <v>8.51</v>
+        <v>4.477</v>
       </c>
       <c r="N2">
-        <v>0.01583255813953488</v>
+        <v>0.006378401481692549</v>
       </c>
       <c r="O2">
-        <v>3.404</v>
+        <v>1.781536012733784</v>
       </c>
       <c r="P2">
-        <v>8.51</v>
+        <v>4.37</v>
       </c>
       <c r="Q2">
-        <v>0.01583255813953488</v>
+        <v>0.00622595811369141</v>
       </c>
       <c r="R2">
-        <v>3.404</v>
+        <v>1.738957421408675</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02389993299084208</v>
       </c>
       <c r="U2">
-        <v>26.23</v>
+        <v>32.96</v>
       </c>
       <c r="V2">
-        <v>0.0488</v>
+        <v>0.04695825616184642</v>
       </c>
       <c r="W2">
-        <v>0.3905405405405405</v>
+        <v>-0.1656568608351192</v>
       </c>
       <c r="X2">
-        <v>0.07853652659919336</v>
+        <v>0.05327412415144978</v>
       </c>
       <c r="Y2">
-        <v>0.3120040139413472</v>
+        <v>-0.2189309849865689</v>
       </c>
       <c r="Z2">
-        <v>1.460370321405261</v>
+        <v>1.751682214405873</v>
       </c>
       <c r="AA2">
-        <v>0.3669200446408408</v>
+        <v>-0.02832335146307122</v>
       </c>
       <c r="AB2">
-        <v>0.07807373928061416</v>
+        <v>0.05311613120780322</v>
       </c>
       <c r="AC2">
-        <v>0.2888651592812004</v>
+        <v>-0.08142734726681108</v>
       </c>
       <c r="AD2">
-        <v>1.597</v>
+        <v>7.191</v>
       </c>
       <c r="AE2">
-        <v>4.365049978494191</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.96204997849419</v>
+        <v>7.191</v>
       </c>
       <c r="AG2">
-        <v>-20.26795002150581</v>
+        <v>-25.769</v>
       </c>
       <c r="AH2">
-        <v>0.01097049918891323</v>
+        <v>0.01014115254600608</v>
       </c>
       <c r="AI2">
-        <v>0.105017345344279</v>
+        <v>0.1092342513405538</v>
       </c>
       <c r="AJ2">
-        <v>-0.03918541015072157</v>
+        <v>-0.03811243679109522</v>
       </c>
       <c r="AK2">
-        <v>-0.6636080431987126</v>
+        <v>-0.7839432934805758</v>
       </c>
       <c r="AL2">
-        <v>0.006</v>
+        <v>1.404</v>
       </c>
       <c r="AM2">
-        <v>-0.413</v>
+        <v>-0.02900000000000014</v>
       </c>
       <c r="AN2">
-        <v>0.1776220665109554</v>
+        <v>1.001532033426184</v>
       </c>
       <c r="AO2">
-        <v>985</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="AP2">
-        <v>-2.254248695529509</v>
+        <v>-3.58899721448468</v>
       </c>
       <c r="AQ2">
-        <v>-14.30992736077482</v>
+        <v>-156.4137931034475</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lifecare AS (OB:LIFE-ME)</t>
+          <t>Observe Medical ASA (OB:OBSRV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,31 +727,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-18.18181818181818</v>
+        <v>-79.93333333333332</v>
       </c>
       <c r="H3">
-        <v>-18.18181818181818</v>
+        <v>-98</v>
       </c>
       <c r="I3">
-        <v>-20.36363636363637</v>
+        <v>-160</v>
       </c>
       <c r="J3">
-        <v>-20.36363636363637</v>
+        <v>-160</v>
       </c>
       <c r="K3">
-        <v>-1.12</v>
+        <v>-2.24</v>
       </c>
       <c r="L3">
-        <v>-20.36363636363637</v>
+        <v>-149.3333333333333</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.107</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.003375394321766562</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.04776785714285714</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,70 +763,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.107</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>2.13</v>
+        <v>3.36</v>
       </c>
       <c r="V3">
-        <v>0.07006578947368421</v>
+        <v>0.105993690851735</v>
       </c>
       <c r="W3">
-        <v>3.88888888888889</v>
+        <v>-25.1685393258427</v>
       </c>
       <c r="X3">
-        <v>0.07812270352694808</v>
+        <v>0.05705724747462722</v>
       </c>
       <c r="Y3">
-        <v>3.810766185361941</v>
+        <v>-25.22559657331733</v>
       </c>
       <c r="Z3">
-        <v>-0.1632047477744807</v>
+        <v>-0.7142857142857141</v>
       </c>
       <c r="AA3">
-        <v>3.323442136498517</v>
+        <v>114.2857142857142</v>
       </c>
       <c r="AB3">
-        <v>0.07812270352694808</v>
+        <v>0.05324377213424845</v>
       </c>
       <c r="AC3">
-        <v>3.245319432971569</v>
+        <v>114.23247051358</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AG3">
-        <v>-2.13</v>
+        <v>0.29</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.1032531824611033</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.4585427135678392</v>
       </c>
       <c r="AJ3">
-        <v>-0.07534488857446056</v>
+        <v>0.009065332916536419</v>
       </c>
       <c r="AK3">
-        <v>-4.4375</v>
+        <v>0.06304347826086958</v>
       </c>
       <c r="AL3">
-        <v>0.006</v>
+        <v>0.135</v>
       </c>
       <c r="AM3">
-        <v>-0.002</v>
+        <v>-0.145</v>
+      </c>
+      <c r="AN3">
+        <v>-1.674311926605504</v>
       </c>
       <c r="AO3">
-        <v>-186.6666666666667</v>
+        <v>-17.77777777777778</v>
+      </c>
+      <c r="AP3">
+        <v>-0.1330275229357798</v>
       </c>
       <c r="AQ3">
-        <v>560</v>
+        <v>16.55172413793103</v>
       </c>
     </row>
     <row r="4">
@@ -844,46 +855,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.126</v>
+        <v>0.08109999999999999</v>
       </c>
       <c r="E4">
-        <v>0.23</v>
+        <v>0.127</v>
       </c>
       <c r="G4">
-        <v>0.268</v>
+        <v>0.3413612565445026</v>
       </c>
       <c r="H4">
-        <v>0.23175</v>
+        <v>0.3036649214659686</v>
       </c>
       <c r="I4">
-        <v>0.2686899601810838</v>
+        <v>0.2602094240837696</v>
       </c>
       <c r="J4">
-        <v>0.2086583294379228</v>
+        <v>0.2021198584626223</v>
       </c>
       <c r="K4">
-        <v>8.67</v>
+        <v>7.61</v>
       </c>
       <c r="L4">
-        <v>0.21675</v>
+        <v>0.1992146596858639</v>
       </c>
       <c r="M4">
-        <v>8.51</v>
+        <v>4.37</v>
       </c>
       <c r="N4">
-        <v>0.02139803872265527</v>
+        <v>0.00823130533057073</v>
       </c>
       <c r="O4">
-        <v>0.9815455594002307</v>
+        <v>0.5742444152431012</v>
       </c>
       <c r="P4">
-        <v>8.51</v>
+        <v>4.37</v>
       </c>
       <c r="Q4">
-        <v>0.02139803872265527</v>
+        <v>0.00823130533057073</v>
       </c>
       <c r="R4">
-        <v>0.9815455594002307</v>
+        <v>0.5742444152431012</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,70 +903,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
       <c r="V4">
-        <v>0.01357807392506915</v>
+        <v>0.02316820493501601</v>
       </c>
       <c r="W4">
-        <v>0.3905405405405405</v>
+        <v>0.3093495934959349</v>
       </c>
       <c r="X4">
-        <v>0.07869786529830082</v>
+        <v>0.05333212983262761</v>
       </c>
       <c r="Y4">
-        <v>0.3118426752422397</v>
+        <v>0.2560174636633074</v>
       </c>
       <c r="Z4">
-        <v>1.758473029230314</v>
+        <v>1.885488647581442</v>
       </c>
       <c r="AA4">
-        <v>0.3669200446408408</v>
+        <v>0.3810946985820421</v>
       </c>
       <c r="AB4">
-        <v>0.07805488535964043</v>
+        <v>0.05309732715828669</v>
       </c>
       <c r="AC4">
-        <v>0.2888651592812004</v>
+        <v>0.3279973714237554</v>
       </c>
       <c r="AD4">
-        <v>1.06</v>
+        <v>3.27</v>
       </c>
       <c r="AE4">
-        <v>3.917007963783241</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.97700796378324</v>
+        <v>3.27</v>
       </c>
       <c r="AG4">
-        <v>-0.4229920362167601</v>
+        <v>-9.030000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.01235980169056703</v>
+        <v>0.006121646666791472</v>
       </c>
       <c r="AI4">
-        <v>0.1682728682318894</v>
+        <v>0.09297696900767699</v>
       </c>
       <c r="AJ4">
-        <v>-0.001064728206610238</v>
+        <v>-0.01730315979075249</v>
       </c>
       <c r="AK4">
-        <v>-0.01749563208360585</v>
+        <v>-0.3948404022737211</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AM4">
-        <v>-0.28</v>
+        <v>0.2979999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.08666503147739352</v>
+        <v>0.281896551724138</v>
+      </c>
+      <c r="AO4">
+        <v>8.081300813008129</v>
       </c>
       <c r="AP4">
-        <v>-0.0345836020126531</v>
+        <v>-0.7784482758620691</v>
       </c>
       <c r="AQ4">
-        <v>-38.57142857142857</v>
+        <v>33.35570469798658</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +980,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gentian Diagnostics AS (OB:GENT-ME)</t>
+          <t>Gentian Diagnostics AS (OB:GENT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,22 +989,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0.1010309278350515</v>
+        <v>-0.04444444444444448</v>
       </c>
       <c r="H5">
-        <v>-0.4865979381443299</v>
+        <v>-0.3830065359477124</v>
       </c>
       <c r="I5">
-        <v>-0.7586821449365341</v>
+        <v>-0.3111111111111111</v>
       </c>
       <c r="J5">
-        <v>-0.7586821449365341</v>
+        <v>-0.3111111111111111</v>
       </c>
       <c r="K5">
-        <v>-5.05</v>
+        <v>-2.24</v>
       </c>
       <c r="L5">
-        <v>-1.041237113402062</v>
+        <v>-0.2928104575163399</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1014,70 +1028,8907 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>18.7</v>
+        <v>16.2</v>
       </c>
       <c r="V5">
-        <v>0.1709323583180987</v>
+        <v>0.1653061224489796</v>
       </c>
       <c r="W5">
-        <v>-0.1593059936908517</v>
+        <v>-0.09491525423728814</v>
       </c>
       <c r="X5">
-        <v>0.07853652659919336</v>
+        <v>0.05321611847027195</v>
       </c>
       <c r="Y5">
-        <v>-0.2378425202900451</v>
+        <v>-0.1481313727075601</v>
       </c>
       <c r="Z5">
-        <v>0.5816015786278672</v>
+        <v>1.407025933419165</v>
       </c>
       <c r="AA5">
-        <v>-0.4412507331718645</v>
+        <v>-0.4377414015081845</v>
       </c>
       <c r="AB5">
-        <v>0.07807373928061416</v>
+        <v>0.05311066444919306</v>
       </c>
       <c r="AC5">
-        <v>-0.5193244724524787</v>
+        <v>-0.4908520659573776</v>
       </c>
       <c r="AD5">
-        <v>0.537</v>
+        <v>0.271</v>
       </c>
       <c r="AE5">
-        <v>0.44804201471095</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.98504201471095</v>
+        <v>0.271</v>
       </c>
       <c r="AG5">
-        <v>-17.71495798528905</v>
+        <v>-15.929</v>
       </c>
       <c r="AH5">
-        <v>0.008923691079264834</v>
+        <v>0.002757680292253055</v>
       </c>
       <c r="AI5">
-        <v>0.04006672081835493</v>
+        <v>0.01274035071223732</v>
       </c>
       <c r="AJ5">
-        <v>-0.193215355482377</v>
+        <v>-0.1940880457165137</v>
       </c>
       <c r="AK5">
-        <v>-3.010166782328255</v>
+        <v>-3.141195030565962</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AM5">
-        <v>-0.131</v>
+        <v>-0.163</v>
       </c>
       <c r="AN5">
-        <v>-0.1657407407407408</v>
+        <v>-0.1209821428571429</v>
+      </c>
+      <c r="AO5">
+        <v>-61.02564102564102</v>
       </c>
       <c r="AP5">
-        <v>5.467579625089214</v>
+        <v>7.111160714285713</v>
       </c>
       <c r="AQ5">
-        <v>28.77862595419847</v>
+        <v>14.60122699386503</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lifecare AS (OB:LIFE)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>2.354166666666667</v>
+      </c>
+      <c r="H6">
+        <v>15.9375</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>-0.617</v>
+      </c>
+      <c r="L6">
+        <v>12.85416666666667</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1.1</v>
+      </c>
+      <c r="V6">
+        <v>0.02663438256658596</v>
+      </c>
+      <c r="W6">
+        <v>-0.2363984674329502</v>
+      </c>
+      <c r="X6">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="Y6">
+        <v>-0.2895200653993636</v>
+      </c>
+      <c r="Z6">
+        <v>-0.1</v>
+      </c>
+      <c r="AA6">
+        <v>-1.3</v>
+      </c>
+      <c r="AB6">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="AC6">
+        <v>-1.353121597966414</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>-1.1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.02736318407960199</v>
+      </c>
+      <c r="AK6">
+        <v>-3.333333333333335</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>-0.019</v>
+      </c>
+      <c r="AQ6">
+        <v>32.8421052631579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Medistim ASA (OB:MEDI)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OB:MEDI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00612164666679147</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>530.9</v>
+      </c>
+      <c r="H2">
+        <v>491.27936713856</v>
+      </c>
+      <c r="I2">
+        <v>521.87</v>
+      </c>
+      <c r="J2">
+        <v>527.05466713856</v>
+      </c>
+      <c r="K2">
+        <v>3.27</v>
+      </c>
+      <c r="L2">
+        <v>48.0753</v>
+      </c>
+      <c r="M2">
+        <v>0.0530973271582867</v>
+      </c>
+      <c r="N2">
+        <v>0.0526664903266784</v>
+      </c>
+      <c r="O2">
+        <v>0.014976</v>
+      </c>
+      <c r="P2">
+        <v>0.013884</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0533321298326276</v>
+      </c>
+      <c r="T2">
+        <v>0.0565021212381081</v>
+      </c>
+      <c r="U2">
+        <v>0.932884106623466</v>
+      </c>
+      <c r="V2">
+        <v>1.00004494148534</v>
+      </c>
+      <c r="W2">
+        <v>10.85609683890793</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>530.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>11.6</v>
+      </c>
+      <c r="AH2">
+        <v>2.31</v>
+      </c>
+      <c r="AI2">
+        <v>1.46</v>
+      </c>
+      <c r="AJ2">
+        <v>3.27</v>
+      </c>
+      <c r="AK2">
+        <v>3.27</v>
+      </c>
+      <c r="AL2">
+        <v>1.23</v>
+      </c>
+      <c r="AM2">
+        <v>3.27</v>
+      </c>
+      <c r="AN2">
+        <v>12.3</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="C2">
+        <v>533.8809597270556</v>
+      </c>
+      <c r="D2">
+        <v>521.5809597270556</v>
+      </c>
+      <c r="E2">
+        <v>-3.27</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12.3</v>
+      </c>
+      <c r="H2">
+        <v>530.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>11.6</v>
+      </c>
+      <c r="K2">
+        <v>2.31</v>
+      </c>
+      <c r="L2">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="O2">
+        <v>2.0438</v>
+      </c>
+      <c r="P2">
+        <v>7.2462</v>
+      </c>
+      <c r="Q2">
+        <v>9.5562</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="T2">
+        <v>0.9284236857290969</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2">
+        <v>0.012636</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05305855045088725</v>
+      </c>
+      <c r="C3">
+        <v>529.2907559104913</v>
+      </c>
+      <c r="D3">
+        <v>522.3324559104913</v>
+      </c>
+      <c r="E3">
+        <v>2.071699999999999</v>
+      </c>
+      <c r="F3">
+        <v>5.341699999999999</v>
+      </c>
+      <c r="G3">
+        <v>12.3</v>
+      </c>
+      <c r="H3">
+        <v>530.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11.6</v>
+      </c>
+      <c r="K3">
+        <v>2.31</v>
+      </c>
+      <c r="L3">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.08653553999999998</v>
+      </c>
+      <c r="N3">
+        <v>9.203464459999999</v>
+      </c>
+      <c r="O3">
+        <v>2.0247621812</v>
+      </c>
+      <c r="P3">
+        <v>7.178702278799999</v>
+      </c>
+      <c r="Q3">
+        <v>9.4887022788</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05346685904130026</v>
+      </c>
+      <c r="T3">
+        <v>0.9357385390105989</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.22</v>
+      </c>
+      <c r="W3">
+        <v>0.012636</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>107.3547354069785</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05299550293536115</v>
+      </c>
+      <c r="C4">
+        <v>524.7027207366524</v>
+      </c>
+      <c r="D4">
+        <v>523.0861207366524</v>
+      </c>
+      <c r="E4">
+        <v>7.413399999999999</v>
+      </c>
+      <c r="F4">
+        <v>10.6834</v>
+      </c>
+      <c r="G4">
+        <v>12.3</v>
+      </c>
+      <c r="H4">
+        <v>530.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11.6</v>
+      </c>
+      <c r="K4">
+        <v>2.31</v>
+      </c>
+      <c r="L4">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.17307108</v>
+      </c>
+      <c r="N4">
+        <v>9.116928919999999</v>
+      </c>
+      <c r="O4">
+        <v>2.0057243624</v>
+      </c>
+      <c r="P4">
+        <v>7.111204557599999</v>
+      </c>
+      <c r="Q4">
+        <v>9.421204557599999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05381916626057261</v>
+      </c>
+      <c r="T4">
+        <v>0.9432026750121315</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.012636</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>53.67736770348923</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05293245541983504</v>
+      </c>
+      <c r="C5">
+        <v>520.1168636063994</v>
+      </c>
+      <c r="D5">
+        <v>523.8419636063994</v>
+      </c>
+      <c r="E5">
+        <v>12.7551</v>
+      </c>
+      <c r="F5">
+        <v>16.0251</v>
+      </c>
+      <c r="G5">
+        <v>12.3</v>
+      </c>
+      <c r="H5">
+        <v>530.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>11.6</v>
+      </c>
+      <c r="K5">
+        <v>2.31</v>
+      </c>
+      <c r="L5">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.25960662</v>
+      </c>
+      <c r="N5">
+        <v>9.03039338</v>
+      </c>
+      <c r="O5">
+        <v>1.9866865436</v>
+      </c>
+      <c r="P5">
+        <v>7.0437068364</v>
+      </c>
+      <c r="Q5">
+        <v>9.353706836400001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0541787375462217</v>
+      </c>
+      <c r="T5">
+        <v>0.950820710725036</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <v>0.012636</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>35.78491180232616</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05286940790430894</v>
+      </c>
+      <c r="C6">
+        <v>515.5331939750065</v>
+      </c>
+      <c r="D6">
+        <v>524.5999939750066</v>
+      </c>
+      <c r="E6">
+        <v>18.0968</v>
+      </c>
+      <c r="F6">
+        <v>21.3668</v>
+      </c>
+      <c r="G6">
+        <v>12.3</v>
+      </c>
+      <c r="H6">
+        <v>530.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>11.6</v>
+      </c>
+      <c r="K6">
+        <v>2.31</v>
+      </c>
+      <c r="L6">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.3461421599999999</v>
+      </c>
+      <c r="N6">
+        <v>8.94385784</v>
+      </c>
+      <c r="O6">
+        <v>1.9676487248</v>
+      </c>
+      <c r="P6">
+        <v>6.9762091152</v>
+      </c>
+      <c r="Q6">
+        <v>9.2862091152</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05454579990032181</v>
+      </c>
+      <c r="T6">
+        <v>0.9585974555152926</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
+        <v>0.012636</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>26.83868385174462</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05280636038878283</v>
+      </c>
+      <c r="C7">
+        <v>510.9517213525572</v>
+      </c>
+      <c r="D7">
+        <v>525.3602213525572</v>
+      </c>
+      <c r="E7">
+        <v>23.4385</v>
+      </c>
+      <c r="F7">
+        <v>26.7085</v>
+      </c>
+      <c r="G7">
+        <v>12.3</v>
+      </c>
+      <c r="H7">
+        <v>530.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>11.6</v>
+      </c>
+      <c r="K7">
+        <v>2.31</v>
+      </c>
+      <c r="L7">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.4326777</v>
+      </c>
+      <c r="N7">
+        <v>8.8573223</v>
+      </c>
+      <c r="O7">
+        <v>1.948610906</v>
+      </c>
+      <c r="P7">
+        <v>6.908711394</v>
+      </c>
+      <c r="Q7">
+        <v>9.218711394</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05492058988292929</v>
+      </c>
+      <c r="T7">
+        <v>0.966537921248502</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.012636</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>21.47094708139569</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05274331287325672</v>
+      </c>
+      <c r="C8">
+        <v>506.3724553043407</v>
+      </c>
+      <c r="D8">
+        <v>526.1226553043408</v>
+      </c>
+      <c r="E8">
+        <v>28.7802</v>
+      </c>
+      <c r="F8">
+        <v>32.0502</v>
+      </c>
+      <c r="G8">
+        <v>12.3</v>
+      </c>
+      <c r="H8">
+        <v>530.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11.6</v>
+      </c>
+      <c r="K8">
+        <v>2.31</v>
+      </c>
+      <c r="L8">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.5192132399999999</v>
+      </c>
+      <c r="N8">
+        <v>8.77078676</v>
+      </c>
+      <c r="O8">
+        <v>1.9295730872</v>
+      </c>
+      <c r="P8">
+        <v>6.8412136728</v>
+      </c>
+      <c r="Q8">
+        <v>9.151213672800001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05530335412048587</v>
+      </c>
+      <c r="T8">
+        <v>0.9746473330611413</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.012636</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>17.89245590116308</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05268026535773061</v>
+      </c>
+      <c r="C9">
+        <v>501.7954054512542</v>
+      </c>
+      <c r="D9">
+        <v>526.8873054512543</v>
+      </c>
+      <c r="E9">
+        <v>34.1219</v>
+      </c>
+      <c r="F9">
+        <v>37.3919</v>
+      </c>
+      <c r="G9">
+        <v>12.3</v>
+      </c>
+      <c r="H9">
+        <v>530.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.6</v>
+      </c>
+      <c r="K9">
+        <v>2.31</v>
+      </c>
+      <c r="L9">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.60574878</v>
+      </c>
+      <c r="N9">
+        <v>8.684251219999998</v>
+      </c>
+      <c r="O9">
+        <v>1.9105352684</v>
+      </c>
+      <c r="P9">
+        <v>6.773715951599999</v>
+      </c>
+      <c r="Q9">
+        <v>9.083715951599999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05569434984702216</v>
+      </c>
+      <c r="T9">
+        <v>0.9829311408267408</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.012636</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>15.33639077242549</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0527170578422045</v>
+      </c>
+      <c r="C10">
+        <v>496.0072105948833</v>
+      </c>
+      <c r="D10">
+        <v>526.4408105948834</v>
+      </c>
+      <c r="E10">
+        <v>39.46359999999999</v>
+      </c>
+      <c r="F10">
+        <v>42.7336</v>
+      </c>
+      <c r="G10">
+        <v>12.3</v>
+      </c>
+      <c r="H10">
+        <v>530.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11.6</v>
+      </c>
+      <c r="K10">
+        <v>2.31</v>
+      </c>
+      <c r="L10">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.7606580799999999</v>
+      </c>
+      <c r="N10">
+        <v>8.529341919999998</v>
+      </c>
+      <c r="O10">
+        <v>1.8764552224</v>
+      </c>
+      <c r="P10">
+        <v>6.652886697599999</v>
+      </c>
+      <c r="Q10">
+        <v>8.962886697599998</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05609384548065706</v>
+      </c>
+      <c r="T10">
+        <v>0.9913950313698531</v>
+      </c>
+      <c r="U10">
+        <v>0.0178</v>
+      </c>
+      <c r="V10">
+        <v>0.22</v>
+      </c>
+      <c r="W10">
+        <v>0.013884</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>12.21310894377142</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05266649032667839</v>
+      </c>
+      <c r="C11">
+        <v>491.2793671385604</v>
+      </c>
+      <c r="D11">
+        <v>527.0546671385604</v>
+      </c>
+      <c r="E11">
+        <v>44.80529999999999</v>
+      </c>
+      <c r="F11">
+        <v>48.07529999999999</v>
+      </c>
+      <c r="G11">
+        <v>12.3</v>
+      </c>
+      <c r="H11">
+        <v>530.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11.6</v>
+      </c>
+      <c r="K11">
+        <v>2.31</v>
+      </c>
+      <c r="L11">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.8557403399999999</v>
+      </c>
+      <c r="N11">
+        <v>8.434259659999999</v>
+      </c>
+      <c r="O11">
+        <v>1.8555371252</v>
+      </c>
+      <c r="P11">
+        <v>6.578722534799999</v>
+      </c>
+      <c r="Q11">
+        <v>8.888722534799999</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05650212123810812</v>
+      </c>
+      <c r="T11">
+        <v>1.000044941485342</v>
+      </c>
+      <c r="U11">
+        <v>0.0178</v>
+      </c>
+      <c r="V11">
+        <v>0.22</v>
+      </c>
+      <c r="W11">
+        <v>0.013884</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>10.85609683890793</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05278752281115227</v>
+      </c>
+      <c r="C12">
+        <v>484.470792695186</v>
+      </c>
+      <c r="D12">
+        <v>525.5877926951861</v>
+      </c>
+      <c r="E12">
+        <v>50.147</v>
+      </c>
+      <c r="F12">
+        <v>53.417</v>
+      </c>
+      <c r="G12">
+        <v>12.3</v>
+      </c>
+      <c r="H12">
+        <v>530.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11.6</v>
+      </c>
+      <c r="K12">
+        <v>2.31</v>
+      </c>
+      <c r="L12">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.06834</v>
+      </c>
+      <c r="N12">
+        <v>8.22166</v>
+      </c>
+      <c r="O12">
+        <v>1.8087652</v>
+      </c>
+      <c r="P12">
+        <v>6.4128948</v>
+      </c>
+      <c r="Q12">
+        <v>8.722894800000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05691946979016919</v>
+      </c>
+      <c r="T12">
+        <v>1.008887071825619</v>
+      </c>
+      <c r="U12">
+        <v>0.02</v>
+      </c>
+      <c r="V12">
+        <v>0.22</v>
+      </c>
+      <c r="W12">
+        <v>0.0156</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>8.695733567965256</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05284849529562616</v>
+      </c>
+      <c r="C13">
+        <v>478.3932143758036</v>
+      </c>
+      <c r="D13">
+        <v>524.8519143758036</v>
+      </c>
+      <c r="E13">
+        <v>55.48869999999999</v>
+      </c>
+      <c r="F13">
+        <v>58.7587</v>
+      </c>
+      <c r="G13">
+        <v>12.3</v>
+      </c>
+      <c r="H13">
+        <v>530.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.6</v>
+      </c>
+      <c r="K13">
+        <v>2.31</v>
+      </c>
+      <c r="L13">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M13">
+        <v>1.23980857</v>
+      </c>
+      <c r="N13">
+        <v>8.05019143</v>
+      </c>
+      <c r="O13">
+        <v>1.7710421146</v>
+      </c>
+      <c r="P13">
+        <v>6.2791493154</v>
+      </c>
+      <c r="Q13">
+        <v>8.5891493154</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05734619696137772</v>
+      </c>
+      <c r="T13">
+        <v>1.017927901724104</v>
+      </c>
+      <c r="U13">
+        <v>0.0211</v>
+      </c>
+      <c r="V13">
+        <v>0.22</v>
+      </c>
+      <c r="W13">
+        <v>0.016458</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>7.493092260202719</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05282366778010007</v>
+      </c>
+      <c r="C14">
+        <v>473.3509093881658</v>
+      </c>
+      <c r="D14">
+        <v>525.1513093881658</v>
+      </c>
+      <c r="E14">
+        <v>60.83039999999999</v>
+      </c>
+      <c r="F14">
+        <v>64.10039999999999</v>
+      </c>
+      <c r="G14">
+        <v>12.3</v>
+      </c>
+      <c r="H14">
+        <v>530.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11.6</v>
+      </c>
+      <c r="K14">
+        <v>2.31</v>
+      </c>
+      <c r="L14">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M14">
+        <v>1.35251844</v>
+      </c>
+      <c r="N14">
+        <v>7.937481559999999</v>
+      </c>
+      <c r="O14">
+        <v>1.7462459432</v>
+      </c>
+      <c r="P14">
+        <v>6.191235616799999</v>
+      </c>
+      <c r="Q14">
+        <v>8.501235616799999</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05778262247738644</v>
+      </c>
+      <c r="T14">
+        <v>1.027174205029374</v>
+      </c>
+      <c r="U14">
+        <v>0.0211</v>
+      </c>
+      <c r="V14">
+        <v>0.22</v>
+      </c>
+      <c r="W14">
+        <v>0.016458</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>6.868667905185825</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05295094026457395</v>
+      </c>
+      <c r="C15">
+        <v>466.4780324773035</v>
+      </c>
+      <c r="D15">
+        <v>523.6201324773035</v>
+      </c>
+      <c r="E15">
+        <v>66.1721</v>
+      </c>
+      <c r="F15">
+        <v>69.4421</v>
+      </c>
+      <c r="G15">
+        <v>12.3</v>
+      </c>
+      <c r="H15">
+        <v>530.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.6</v>
+      </c>
+      <c r="K15">
+        <v>2.31</v>
+      </c>
+      <c r="L15">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M15">
+        <v>1.56939146</v>
+      </c>
+      <c r="N15">
+        <v>7.720608539999999</v>
+      </c>
+      <c r="O15">
+        <v>1.6985338788</v>
+      </c>
+      <c r="P15">
+        <v>6.0220746612</v>
+      </c>
+      <c r="Q15">
+        <v>8.3320746612</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0582290807638781</v>
+      </c>
+      <c r="T15">
+        <v>1.036633067031316</v>
+      </c>
+      <c r="U15">
+        <v>0.0226</v>
+      </c>
+      <c r="V15">
+        <v>0.22</v>
+      </c>
+      <c r="W15">
+        <v>0.017628</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>5.919491877444012</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05293781274904785</v>
+      </c>
+      <c r="C16">
+        <v>461.2938525495951</v>
+      </c>
+      <c r="D16">
+        <v>523.7776525495951</v>
+      </c>
+      <c r="E16">
+        <v>71.5138</v>
+      </c>
+      <c r="F16">
+        <v>74.7838</v>
+      </c>
+      <c r="G16">
+        <v>12.3</v>
+      </c>
+      <c r="H16">
+        <v>530.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>11.6</v>
+      </c>
+      <c r="K16">
+        <v>2.31</v>
+      </c>
+      <c r="L16">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M16">
+        <v>1.69011388</v>
+      </c>
+      <c r="N16">
+        <v>7.599886119999999</v>
+      </c>
+      <c r="O16">
+        <v>1.6719749464</v>
+      </c>
+      <c r="P16">
+        <v>5.927911173599999</v>
+      </c>
+      <c r="Q16">
+        <v>8.237911173599999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05868592180121843</v>
+      </c>
+      <c r="T16">
+        <v>1.046311902568187</v>
+      </c>
+      <c r="U16">
+        <v>0.0226</v>
+      </c>
+      <c r="V16">
+        <v>0.22</v>
+      </c>
+      <c r="W16">
+        <v>0.017628</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>5.496671029055154</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05292468523352173</v>
+      </c>
+      <c r="C17">
+        <v>456.1097674235884</v>
+      </c>
+      <c r="D17">
+        <v>523.9352674235885</v>
+      </c>
+      <c r="E17">
+        <v>76.85549999999999</v>
+      </c>
+      <c r="F17">
+        <v>80.12549999999999</v>
+      </c>
+      <c r="G17">
+        <v>12.3</v>
+      </c>
+      <c r="H17">
+        <v>530.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>11.6</v>
+      </c>
+      <c r="K17">
+        <v>2.31</v>
+      </c>
+      <c r="L17">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M17">
+        <v>1.8108363</v>
+      </c>
+      <c r="N17">
+        <v>7.479163699999999</v>
+      </c>
+      <c r="O17">
+        <v>1.645416014</v>
+      </c>
+      <c r="P17">
+        <v>5.833747685999999</v>
+      </c>
+      <c r="Q17">
+        <v>8.143747685999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05915351203943733</v>
+      </c>
+      <c r="T17">
+        <v>1.056218475411808</v>
+      </c>
+      <c r="U17">
+        <v>0.0226</v>
+      </c>
+      <c r="V17">
+        <v>0.22</v>
+      </c>
+      <c r="W17">
+        <v>0.017628</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5.130226293784811</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05291155771799562</v>
+      </c>
+      <c r="C18">
+        <v>450.925777184892</v>
+      </c>
+      <c r="D18">
+        <v>524.092977184892</v>
+      </c>
+      <c r="E18">
+        <v>82.1972</v>
+      </c>
+      <c r="F18">
+        <v>85.46719999999999</v>
+      </c>
+      <c r="G18">
+        <v>12.3</v>
+      </c>
+      <c r="H18">
+        <v>530.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>11.6</v>
+      </c>
+      <c r="K18">
+        <v>2.31</v>
+      </c>
+      <c r="L18">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.93155872</v>
+      </c>
+      <c r="N18">
+        <v>7.358441279999999</v>
+      </c>
+      <c r="O18">
+        <v>1.6188570816</v>
+      </c>
+      <c r="P18">
+        <v>5.739584198399999</v>
+      </c>
+      <c r="Q18">
+        <v>8.0495841984</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05963223537856621</v>
+      </c>
+      <c r="T18">
+        <v>1.06636091903742</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0.22</v>
+      </c>
+      <c r="W18">
+        <v>0.017628</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>4.80958715042326</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05289843020246952</v>
+      </c>
+      <c r="C19">
+        <v>445.7418819192175</v>
+      </c>
+      <c r="D19">
+        <v>524.2507819192175</v>
+      </c>
+      <c r="E19">
+        <v>87.5389</v>
+      </c>
+      <c r="F19">
+        <v>90.80889999999999</v>
+      </c>
+      <c r="G19">
+        <v>12.3</v>
+      </c>
+      <c r="H19">
+        <v>530.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>11.6</v>
+      </c>
+      <c r="K19">
+        <v>2.31</v>
+      </c>
+      <c r="L19">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M19">
+        <v>2.05228114</v>
+      </c>
+      <c r="N19">
+        <v>7.237718859999999</v>
+      </c>
+      <c r="O19">
+        <v>1.5922981492</v>
+      </c>
+      <c r="P19">
+        <v>5.6454207108</v>
+      </c>
+      <c r="Q19">
+        <v>7.9554207108</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0601224942198428</v>
+      </c>
+      <c r="T19">
+        <v>1.076747758894975</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.22</v>
+      </c>
+      <c r="W19">
+        <v>0.017628</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>4.526670259221892</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06570324754703247</v>
+      </c>
+      <c r="C20">
+        <v>321.383355811426</v>
+      </c>
+      <c r="D20">
+        <v>405.233955811426</v>
+      </c>
+      <c r="E20">
+        <v>92.88059999999999</v>
+      </c>
+      <c r="F20">
+        <v>96.15059999999998</v>
+      </c>
+      <c r="G20">
+        <v>12.3</v>
+      </c>
+      <c r="H20">
+        <v>530.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>11.6</v>
+      </c>
+      <c r="K20">
+        <v>2.31</v>
+      </c>
+      <c r="L20">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M20">
+        <v>10.4804154</v>
+      </c>
+      <c r="N20">
+        <v>-1.190415399999999</v>
+      </c>
+      <c r="O20">
+        <v>-0.2618913879999998</v>
+      </c>
+      <c r="P20">
+        <v>-0.9285240119999993</v>
+      </c>
+      <c r="Q20">
+        <v>1.381475988000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06086508575236242</v>
+      </c>
+      <c r="T20">
+        <v>1.092480630346661</v>
+      </c>
+      <c r="U20">
+        <v>0.109</v>
+      </c>
+      <c r="V20">
+        <v>0.1950113542255205</v>
+      </c>
+      <c r="W20">
+        <v>0.08774376238941826</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.8864152464796387</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06670024754703248</v>
+      </c>
+      <c r="C21">
+        <v>309.0030406275288</v>
+      </c>
+      <c r="D21">
+        <v>398.1953406275288</v>
+      </c>
+      <c r="E21">
+        <v>98.2223</v>
+      </c>
+      <c r="F21">
+        <v>101.4923</v>
+      </c>
+      <c r="G21">
+        <v>12.3</v>
+      </c>
+      <c r="H21">
+        <v>530.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11.6</v>
+      </c>
+      <c r="K21">
+        <v>2.31</v>
+      </c>
+      <c r="L21">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M21">
+        <v>11.0626607</v>
+      </c>
+      <c r="N21">
+        <v>-1.772660700000001</v>
+      </c>
+      <c r="O21">
+        <v>-0.3899853540000003</v>
+      </c>
+      <c r="P21">
+        <v>-1.382675346000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.9273246539999991</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06150169174930517</v>
+      </c>
+      <c r="T21">
+        <v>1.105968045536126</v>
+      </c>
+      <c r="U21">
+        <v>0.109</v>
+      </c>
+      <c r="V21">
+        <v>0.1847475987399667</v>
+      </c>
+      <c r="W21">
+        <v>0.08886251173734362</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.8397618124543944</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07427956354320692</v>
+      </c>
+      <c r="C22">
+        <v>257.2152251067072</v>
+      </c>
+      <c r="D22">
+        <v>351.7492251067072</v>
+      </c>
+      <c r="E22">
+        <v>103.564</v>
+      </c>
+      <c r="F22">
+        <v>106.834</v>
+      </c>
+      <c r="G22">
+        <v>12.3</v>
+      </c>
+      <c r="H22">
+        <v>530.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>11.6</v>
+      </c>
+      <c r="K22">
+        <v>2.31</v>
+      </c>
+      <c r="L22">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M22">
+        <v>14.9781268</v>
+      </c>
+      <c r="N22">
+        <v>-5.688126800000001</v>
+      </c>
+      <c r="O22">
+        <v>-1.251387896</v>
+      </c>
+      <c r="P22">
+        <v>-4.436738904</v>
+      </c>
+      <c r="Q22">
+        <v>-2.126738904</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06258210789138953</v>
+      </c>
+      <c r="T22">
+        <v>1.128858218037914</v>
+      </c>
+      <c r="U22">
+        <v>0.1402</v>
+      </c>
+      <c r="V22">
+        <v>0.1364523099110097</v>
+      </c>
+      <c r="W22">
+        <v>0.1210693861504764</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.6202377723227713</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07558856354320692</v>
+      </c>
+      <c r="C23">
+        <v>244.9275345609238</v>
+      </c>
+      <c r="D23">
+        <v>344.8032345609238</v>
+      </c>
+      <c r="E23">
+        <v>108.9057</v>
+      </c>
+      <c r="F23">
+        <v>112.1757</v>
+      </c>
+      <c r="G23">
+        <v>12.3</v>
+      </c>
+      <c r="H23">
+        <v>530.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11.6</v>
+      </c>
+      <c r="K23">
+        <v>2.31</v>
+      </c>
+      <c r="L23">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M23">
+        <v>15.72703314</v>
+      </c>
+      <c r="N23">
+        <v>-6.437033139999999</v>
+      </c>
+      <c r="O23">
+        <v>-1.4161472908</v>
+      </c>
+      <c r="P23">
+        <v>-5.020885849199999</v>
+      </c>
+      <c r="Q23">
+        <v>-2.710885849199999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06325656495330587</v>
+      </c>
+      <c r="T23">
+        <v>1.14314756257004</v>
+      </c>
+      <c r="U23">
+        <v>0.1402</v>
+      </c>
+      <c r="V23">
+        <v>0.1299545808676283</v>
+      </c>
+      <c r="W23">
+        <v>0.1219803677623585</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.5907026403074014</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07689756354320691</v>
+      </c>
+      <c r="C24">
+        <v>232.9088567176061</v>
+      </c>
+      <c r="D24">
+        <v>338.1262567176061</v>
+      </c>
+      <c r="E24">
+        <v>114.2474</v>
+      </c>
+      <c r="F24">
+        <v>117.5174</v>
+      </c>
+      <c r="G24">
+        <v>12.3</v>
+      </c>
+      <c r="H24">
+        <v>530.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.6</v>
+      </c>
+      <c r="K24">
+        <v>2.31</v>
+      </c>
+      <c r="L24">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M24">
+        <v>16.47593948</v>
+      </c>
+      <c r="N24">
+        <v>-7.185939479999998</v>
+      </c>
+      <c r="O24">
+        <v>-1.5809066856</v>
+      </c>
+      <c r="P24">
+        <v>-5.605032794399999</v>
+      </c>
+      <c r="Q24">
+        <v>-3.295032794399999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06394831578604054</v>
+      </c>
+      <c r="T24">
+        <v>1.157803300551707</v>
+      </c>
+      <c r="U24">
+        <v>0.1402</v>
+      </c>
+      <c r="V24">
+        <v>0.1240475544645543</v>
+      </c>
+      <c r="W24">
+        <v>0.1228085328640695</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.5638525202934286</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07820656354320692</v>
+      </c>
+      <c r="C25">
+        <v>221.1438604845003</v>
+      </c>
+      <c r="D25">
+        <v>331.7029604845003</v>
+      </c>
+      <c r="E25">
+        <v>119.5891</v>
+      </c>
+      <c r="F25">
+        <v>122.8591</v>
+      </c>
+      <c r="G25">
+        <v>12.3</v>
+      </c>
+      <c r="H25">
+        <v>530.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>11.6</v>
+      </c>
+      <c r="K25">
+        <v>2.31</v>
+      </c>
+      <c r="L25">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M25">
+        <v>17.22484582</v>
+      </c>
+      <c r="N25">
+        <v>-7.93484582</v>
+      </c>
+      <c r="O25">
+        <v>-1.7456660804</v>
+      </c>
+      <c r="P25">
+        <v>-6.1891797396</v>
+      </c>
+      <c r="Q25">
+        <v>-3.8791797396</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06465803417287225</v>
+      </c>
+      <c r="T25">
+        <v>1.172839707052378</v>
+      </c>
+      <c r="U25">
+        <v>0.1402</v>
+      </c>
+      <c r="V25">
+        <v>0.1186541825313128</v>
+      </c>
+      <c r="W25">
+        <v>0.1235646836091099</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.539337193324149</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07951556354320692</v>
+      </c>
+      <c r="C26">
+        <v>209.6183580144535</v>
+      </c>
+      <c r="D26">
+        <v>325.5191580144535</v>
+      </c>
+      <c r="E26">
+        <v>124.9308</v>
+      </c>
+      <c r="F26">
+        <v>128.2008</v>
+      </c>
+      <c r="G26">
+        <v>12.3</v>
+      </c>
+      <c r="H26">
+        <v>530.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>11.6</v>
+      </c>
+      <c r="K26">
+        <v>2.31</v>
+      </c>
+      <c r="L26">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M26">
+        <v>17.97375216</v>
+      </c>
+      <c r="N26">
+        <v>-8.683752159999997</v>
+      </c>
+      <c r="O26">
+        <v>-1.910425475199999</v>
+      </c>
+      <c r="P26">
+        <v>-6.773326684799998</v>
+      </c>
+      <c r="Q26">
+        <v>-4.463326684799998</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06538642935935741</v>
+      </c>
+      <c r="T26">
+        <v>1.188271808460962</v>
+      </c>
+      <c r="U26">
+        <v>0.1402</v>
+      </c>
+      <c r="V26">
+        <v>0.1137102582591748</v>
+      </c>
+      <c r="W26">
+        <v>0.1242578217920637</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.5168648102689761</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0919827543810873</v>
+      </c>
+      <c r="C27">
+        <v>155.1937568129834</v>
+      </c>
+      <c r="D27">
+        <v>276.4362568129834</v>
+      </c>
+      <c r="E27">
+        <v>130.2725</v>
+      </c>
+      <c r="F27">
+        <v>133.5425</v>
+      </c>
+      <c r="G27">
+        <v>12.3</v>
+      </c>
+      <c r="H27">
+        <v>530.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>11.6</v>
+      </c>
+      <c r="K27">
+        <v>2.31</v>
+      </c>
+      <c r="L27">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M27">
+        <v>24.53175725</v>
+      </c>
+      <c r="N27">
+        <v>-15.24175725</v>
+      </c>
+      <c r="O27">
+        <v>-3.353186595</v>
+      </c>
+      <c r="P27">
+        <v>-11.888570655</v>
+      </c>
+      <c r="Q27">
+        <v>-9.578570654999998</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06651183620132269</v>
+      </c>
+      <c r="T27">
+        <v>1.212115173756837</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.08331241741763118</v>
+      </c>
+      <c r="W27">
+        <v>0.1683955089203812</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.3786928064437781</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09372675438108731</v>
+      </c>
+      <c r="C28">
+        <v>144.1417244021731</v>
+      </c>
+      <c r="D28">
+        <v>270.7259244021731</v>
+      </c>
+      <c r="E28">
+        <v>135.6142</v>
+      </c>
+      <c r="F28">
+        <v>138.8842</v>
+      </c>
+      <c r="G28">
+        <v>12.3</v>
+      </c>
+      <c r="H28">
+        <v>530.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>11.6</v>
+      </c>
+      <c r="K28">
+        <v>2.31</v>
+      </c>
+      <c r="L28">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M28">
+        <v>25.51302754</v>
+      </c>
+      <c r="N28">
+        <v>-16.22302754</v>
+      </c>
+      <c r="O28">
+        <v>-3.5690660588</v>
+      </c>
+      <c r="P28">
+        <v>-12.6539614812</v>
+      </c>
+      <c r="Q28">
+        <v>-10.3439614812</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0672849691229622</v>
+      </c>
+      <c r="T28">
+        <v>1.228495108537335</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.0801080936707992</v>
+      </c>
+      <c r="W28">
+        <v>0.1689841431926742</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.3641276985036328</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09547075438108729</v>
+      </c>
+      <c r="C29">
+        <v>133.3208335148642</v>
+      </c>
+      <c r="D29">
+        <v>265.2467335148642</v>
+      </c>
+      <c r="E29">
+        <v>140.9559</v>
+      </c>
+      <c r="F29">
+        <v>144.2259</v>
+      </c>
+      <c r="G29">
+        <v>12.3</v>
+      </c>
+      <c r="H29">
+        <v>530.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>11.6</v>
+      </c>
+      <c r="K29">
+        <v>2.31</v>
+      </c>
+      <c r="L29">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M29">
+        <v>26.49429783</v>
+      </c>
+      <c r="N29">
+        <v>-17.20429783</v>
+      </c>
+      <c r="O29">
+        <v>-3.7849455226</v>
+      </c>
+      <c r="P29">
+        <v>-13.4193523074</v>
+      </c>
+      <c r="Q29">
+        <v>-11.1093523074</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06807928376848221</v>
+      </c>
+      <c r="T29">
+        <v>1.245323808654284</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.07714112723854738</v>
+      </c>
+      <c r="W29">
+        <v>0.1695291749262788</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.3506414874479427</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09721475438108729</v>
+      </c>
+      <c r="C30">
+        <v>122.7173284116535</v>
+      </c>
+      <c r="D30">
+        <v>259.9849284116535</v>
+      </c>
+      <c r="E30">
+        <v>146.2976</v>
+      </c>
+      <c r="F30">
+        <v>149.5676</v>
+      </c>
+      <c r="G30">
+        <v>12.3</v>
+      </c>
+      <c r="H30">
+        <v>530.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>11.6</v>
+      </c>
+      <c r="K30">
+        <v>2.31</v>
+      </c>
+      <c r="L30">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M30">
+        <v>27.47556812</v>
+      </c>
+      <c r="N30">
+        <v>-18.18556812</v>
+      </c>
+      <c r="O30">
+        <v>-4.0008249864</v>
+      </c>
+      <c r="P30">
+        <v>-14.1847431336</v>
+      </c>
+      <c r="Q30">
+        <v>-11.8747431336</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06889566270971112</v>
+      </c>
+      <c r="T30">
+        <v>1.262619972663371</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.07438608698002784</v>
+      </c>
+      <c r="W30">
+        <v>0.1700352758217689</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.3381185771819447</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09895875438108731</v>
+      </c>
+      <c r="C31">
+        <v>112.3185236338787</v>
+      </c>
+      <c r="D31">
+        <v>254.9278236338787</v>
+      </c>
+      <c r="E31">
+        <v>151.6393</v>
+      </c>
+      <c r="F31">
+        <v>154.9093</v>
+      </c>
+      <c r="G31">
+        <v>12.3</v>
+      </c>
+      <c r="H31">
+        <v>530.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>11.6</v>
+      </c>
+      <c r="K31">
+        <v>2.31</v>
+      </c>
+      <c r="L31">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M31">
+        <v>28.45683841</v>
+      </c>
+      <c r="N31">
+        <v>-19.16683841</v>
+      </c>
+      <c r="O31">
+        <v>-4.216704450199999</v>
+      </c>
+      <c r="P31">
+        <v>-14.9501339598</v>
+      </c>
+      <c r="Q31">
+        <v>-12.6401339598</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06973503824083382</v>
+      </c>
+      <c r="T31">
+        <v>1.280403352560039</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.07182104949795791</v>
+      </c>
+      <c r="W31">
+        <v>0.1705064732072251</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.3264593158998087</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1007027543810873</v>
+      </c>
+      <c r="C32">
+        <v>102.1127018967609</v>
+      </c>
+      <c r="D32">
+        <v>250.0637018967609</v>
+      </c>
+      <c r="E32">
+        <v>156.981</v>
+      </c>
+      <c r="F32">
+        <v>160.251</v>
+      </c>
+      <c r="G32">
+        <v>12.3</v>
+      </c>
+      <c r="H32">
+        <v>530.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>11.6</v>
+      </c>
+      <c r="K32">
+        <v>2.31</v>
+      </c>
+      <c r="L32">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M32">
+        <v>29.4381087</v>
+      </c>
+      <c r="N32">
+        <v>-20.1481087</v>
+      </c>
+      <c r="O32">
+        <v>-4.432583913999999</v>
+      </c>
+      <c r="P32">
+        <v>-15.715524786</v>
+      </c>
+      <c r="Q32">
+        <v>-13.405524786</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07059839592998859</v>
+      </c>
+      <c r="T32">
+        <v>1.298694829025182</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06942701451469264</v>
+      </c>
+      <c r="W32">
+        <v>0.170946257433651</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.3155773387031484</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1024467543810873</v>
+      </c>
+      <c r="C33">
+        <v>92.08902345311378</v>
+      </c>
+      <c r="D33">
+        <v>245.3817234531138</v>
+      </c>
+      <c r="E33">
+        <v>162.3227</v>
+      </c>
+      <c r="F33">
+        <v>165.5927</v>
+      </c>
+      <c r="G33">
+        <v>12.3</v>
+      </c>
+      <c r="H33">
+        <v>530.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>11.6</v>
+      </c>
+      <c r="K33">
+        <v>2.31</v>
+      </c>
+      <c r="L33">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M33">
+        <v>30.41937898999999</v>
+      </c>
+      <c r="N33">
+        <v>-21.12937899</v>
+      </c>
+      <c r="O33">
+        <v>-4.648463377799999</v>
+      </c>
+      <c r="P33">
+        <v>-16.4809156122</v>
+      </c>
+      <c r="Q33">
+        <v>-14.1709156122</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07148677847969856</v>
+      </c>
+      <c r="T33">
+        <v>1.317516493213953</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.06718743340131547</v>
+      </c>
+      <c r="W33">
+        <v>0.1713576684841784</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3053974245514339</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1041907543810873</v>
+      </c>
+      <c r="C34">
+        <v>82.23744545189589</v>
+      </c>
+      <c r="D34">
+        <v>240.8718454518959</v>
+      </c>
+      <c r="E34">
+        <v>167.6644</v>
+      </c>
+      <c r="F34">
+        <v>170.9344</v>
+      </c>
+      <c r="G34">
+        <v>12.3</v>
+      </c>
+      <c r="H34">
+        <v>530.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>11.6</v>
+      </c>
+      <c r="K34">
+        <v>2.31</v>
+      </c>
+      <c r="L34">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M34">
+        <v>31.40064928</v>
+      </c>
+      <c r="N34">
+        <v>-22.11064928</v>
+      </c>
+      <c r="O34">
+        <v>-4.864342841599999</v>
+      </c>
+      <c r="P34">
+        <v>-17.2463064384</v>
+      </c>
+      <c r="Q34">
+        <v>-14.9363064384</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07240128992792944</v>
+      </c>
+      <c r="T34">
+        <v>1.336891735761217</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.06508782610752437</v>
+      </c>
+      <c r="W34">
+        <v>0.1717433663440478</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2958537550342016</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1059347543810873</v>
+      </c>
+      <c r="C35">
+        <v>72.54865002894402</v>
+      </c>
+      <c r="D35">
+        <v>236.524750028944</v>
+      </c>
+      <c r="E35">
+        <v>173.0061</v>
+      </c>
+      <c r="F35">
+        <v>176.2761</v>
+      </c>
+      <c r="G35">
+        <v>12.3</v>
+      </c>
+      <c r="H35">
+        <v>530.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>11.6</v>
+      </c>
+      <c r="K35">
+        <v>2.31</v>
+      </c>
+      <c r="L35">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M35">
+        <v>32.38191957</v>
+      </c>
+      <c r="N35">
+        <v>-23.09191957</v>
+      </c>
+      <c r="O35">
+        <v>-5.0802223054</v>
+      </c>
+      <c r="P35">
+        <v>-18.0116972646</v>
+      </c>
+      <c r="Q35">
+        <v>-15.7016972646</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07334310022536121</v>
+      </c>
+      <c r="T35">
+        <v>1.356845343757653</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.06311546774062968</v>
+      </c>
+      <c r="W35">
+        <v>0.1721056885760463</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2868884897301349</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1076787543810873</v>
+      </c>
+      <c r="C36">
+        <v>63.01398004629317</v>
+      </c>
+      <c r="D36">
+        <v>232.3317800462931</v>
+      </c>
+      <c r="E36">
+        <v>178.3478</v>
+      </c>
+      <c r="F36">
+        <v>181.6178</v>
+      </c>
+      <c r="G36">
+        <v>12.3</v>
+      </c>
+      <c r="H36">
+        <v>530.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>11.6</v>
+      </c>
+      <c r="K36">
+        <v>2.31</v>
+      </c>
+      <c r="L36">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M36">
+        <v>33.36318986</v>
+      </c>
+      <c r="N36">
+        <v>-24.07318986</v>
+      </c>
+      <c r="O36">
+        <v>-5.2961017692</v>
+      </c>
+      <c r="P36">
+        <v>-18.7770880908</v>
+      </c>
+      <c r="Q36">
+        <v>-16.4670880908</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07431345022877578</v>
+      </c>
+      <c r="T36">
+        <v>1.37740360654186</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.06125913045414057</v>
+      </c>
+      <c r="W36">
+        <v>0.1724466977355744</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2784505929733663</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1094227543810873</v>
+      </c>
+      <c r="C37">
+        <v>53.62538154749123</v>
+      </c>
+      <c r="D37">
+        <v>228.2848815474912</v>
+      </c>
+      <c r="E37">
+        <v>183.6895</v>
+      </c>
+      <c r="F37">
+        <v>186.9595</v>
+      </c>
+      <c r="G37">
+        <v>12.3</v>
+      </c>
+      <c r="H37">
+        <v>530.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>11.6</v>
+      </c>
+      <c r="K37">
+        <v>2.31</v>
+      </c>
+      <c r="L37">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M37">
+        <v>34.34446015</v>
+      </c>
+      <c r="N37">
+        <v>-25.05446015</v>
+      </c>
+      <c r="O37">
+        <v>-5.511981232999999</v>
+      </c>
+      <c r="P37">
+        <v>-19.542478917</v>
+      </c>
+      <c r="Q37">
+        <v>-17.232478917</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07531365715537233</v>
+      </c>
+      <c r="T37">
+        <v>1.398594431257888</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.05950886958402228</v>
+      </c>
+      <c r="W37">
+        <v>0.1727682206574151</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2704948617455558</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1111667543810873</v>
+      </c>
+      <c r="C38">
+        <v>44.37535212404259</v>
+      </c>
+      <c r="D38">
+        <v>224.3765521240425</v>
+      </c>
+      <c r="E38">
+        <v>189.0312</v>
+      </c>
+      <c r="F38">
+        <v>192.3012</v>
+      </c>
+      <c r="G38">
+        <v>12.3</v>
+      </c>
+      <c r="H38">
+        <v>530.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>11.6</v>
+      </c>
+      <c r="K38">
+        <v>2.31</v>
+      </c>
+      <c r="L38">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M38">
+        <v>35.32573043999999</v>
+      </c>
+      <c r="N38">
+        <v>-26.03573043999999</v>
+      </c>
+      <c r="O38">
+        <v>-5.727860696799999</v>
+      </c>
+      <c r="P38">
+        <v>-20.30786974319999</v>
+      </c>
+      <c r="Q38">
+        <v>-17.9978697432</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07634512054842503</v>
+      </c>
+      <c r="T38">
+        <v>1.420447469246293</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.05785584542891055</v>
+      </c>
+      <c r="W38">
+        <v>0.1730718811947091</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.262981115585957</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1129107543810873</v>
+      </c>
+      <c r="C39">
+        <v>35.25689449649886</v>
+      </c>
+      <c r="D39">
+        <v>220.5997944964988</v>
+      </c>
+      <c r="E39">
+        <v>194.3729</v>
+      </c>
+      <c r="F39">
+        <v>197.6429</v>
+      </c>
+      <c r="G39">
+        <v>12.3</v>
+      </c>
+      <c r="H39">
+        <v>530.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>11.6</v>
+      </c>
+      <c r="K39">
+        <v>2.31</v>
+      </c>
+      <c r="L39">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M39">
+        <v>36.30700072999999</v>
+      </c>
+      <c r="N39">
+        <v>-27.01700072999999</v>
+      </c>
+      <c r="O39">
+        <v>-5.943740160599998</v>
+      </c>
+      <c r="P39">
+        <v>-21.0732605694</v>
+      </c>
+      <c r="Q39">
+        <v>-18.7632605694</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07740932881109842</v>
+      </c>
+      <c r="T39">
+        <v>1.442994254472424</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.05629217393083189</v>
+      </c>
+      <c r="W39">
+        <v>0.1733591276489062</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.2558735178674176</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1146547543810873</v>
+      </c>
+      <c r="C40">
+        <v>26.26347470594933</v>
+      </c>
+      <c r="D40">
+        <v>216.9480747059493</v>
+      </c>
+      <c r="E40">
+        <v>199.7146</v>
+      </c>
+      <c r="F40">
+        <v>202.9846</v>
+      </c>
+      <c r="G40">
+        <v>12.3</v>
+      </c>
+      <c r="H40">
+        <v>530.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>11.6</v>
+      </c>
+      <c r="K40">
+        <v>2.31</v>
+      </c>
+      <c r="L40">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M40">
+        <v>37.28827102</v>
+      </c>
+      <c r="N40">
+        <v>-27.99827102</v>
+      </c>
+      <c r="O40">
+        <v>-6.159619624400001</v>
+      </c>
+      <c r="P40">
+        <v>-21.8386513956</v>
+      </c>
+      <c r="Q40">
+        <v>-19.5286513956</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07850786637256776</v>
+      </c>
+      <c r="T40">
+        <v>1.466268355351012</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.05481080093265208</v>
+      </c>
+      <c r="W40">
+        <v>0.1736312558686718</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.2491400042393277</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1163987543810873</v>
+      </c>
+      <c r="C41">
+        <v>17.38898439037882</v>
+      </c>
+      <c r="D41">
+        <v>213.4152843903788</v>
+      </c>
+      <c r="E41">
+        <v>205.0563</v>
+      </c>
+      <c r="F41">
+        <v>208.3263</v>
+      </c>
+      <c r="G41">
+        <v>12.3</v>
+      </c>
+      <c r="H41">
+        <v>530.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>11.6</v>
+      </c>
+      <c r="K41">
+        <v>2.31</v>
+      </c>
+      <c r="L41">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M41">
+        <v>38.26954131</v>
+      </c>
+      <c r="N41">
+        <v>-28.97954131</v>
+      </c>
+      <c r="O41">
+        <v>-6.375499088200001</v>
+      </c>
+      <c r="P41">
+        <v>-22.6040422218</v>
+      </c>
+      <c r="Q41">
+        <v>-20.2940422218</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07964242155900331</v>
+      </c>
+      <c r="T41">
+        <v>1.490305541504307</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.05340539578053281</v>
+      </c>
+      <c r="W41">
+        <v>0.1738894287951161</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2427517990024218</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1181427543810873</v>
+      </c>
+      <c r="C42">
+        <v>8.627706687726516</v>
+      </c>
+      <c r="D42">
+        <v>209.9957066877265</v>
+      </c>
+      <c r="E42">
+        <v>210.398</v>
+      </c>
+      <c r="F42">
+        <v>213.668</v>
+      </c>
+      <c r="G42">
+        <v>12.3</v>
+      </c>
+      <c r="H42">
+        <v>530.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>11.6</v>
+      </c>
+      <c r="K42">
+        <v>2.31</v>
+      </c>
+      <c r="L42">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M42">
+        <v>39.2508116</v>
+      </c>
+      <c r="N42">
+        <v>-29.9608116</v>
+      </c>
+      <c r="O42">
+        <v>-6.591378552</v>
+      </c>
+      <c r="P42">
+        <v>-23.369433048</v>
+      </c>
+      <c r="Q42">
+        <v>-21.059433048</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08081479525165336</v>
+      </c>
+      <c r="T42">
+        <v>1.515143967196046</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.05207026088601948</v>
+      </c>
+      <c r="W42">
+        <v>0.1741346930752382</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.2366830040273613</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1198867543810873</v>
+      </c>
+      <c r="C43">
+        <v>-0.02571463471446123</v>
+      </c>
+      <c r="D43">
+        <v>206.6839853652855</v>
+      </c>
+      <c r="E43">
+        <v>215.7397</v>
+      </c>
+      <c r="F43">
+        <v>219.0097</v>
+      </c>
+      <c r="G43">
+        <v>12.3</v>
+      </c>
+      <c r="H43">
+        <v>530.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>11.6</v>
+      </c>
+      <c r="K43">
+        <v>2.31</v>
+      </c>
+      <c r="L43">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M43">
+        <v>40.23208189</v>
+      </c>
+      <c r="N43">
+        <v>-30.94208189</v>
+      </c>
+      <c r="O43">
+        <v>-6.807258015800001</v>
+      </c>
+      <c r="P43">
+        <v>-24.1348238742</v>
+      </c>
+      <c r="Q43">
+        <v>-21.8248238742</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08202691042541019</v>
+      </c>
+      <c r="T43">
+        <v>1.540824373419707</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.05080025452294584</v>
+      </c>
+      <c r="W43">
+        <v>0.1743679932441349</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.230910247831572</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1216307543810873</v>
+      </c>
+      <c r="C44">
+        <v>-8.576303175195449</v>
+      </c>
+      <c r="D44">
+        <v>203.4750968248045</v>
+      </c>
+      <c r="E44">
+        <v>221.0814</v>
+      </c>
+      <c r="F44">
+        <v>224.3514</v>
+      </c>
+      <c r="G44">
+        <v>12.3</v>
+      </c>
+      <c r="H44">
+        <v>530.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>11.6</v>
+      </c>
+      <c r="K44">
+        <v>2.31</v>
+      </c>
+      <c r="L44">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M44">
+        <v>41.21335217999999</v>
+      </c>
+      <c r="N44">
+        <v>-31.92335217999999</v>
+      </c>
+      <c r="O44">
+        <v>-7.023137479599999</v>
+      </c>
+      <c r="P44">
+        <v>-24.9002147004</v>
+      </c>
+      <c r="Q44">
+        <v>-22.5902147004</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08328082267412416</v>
+      </c>
+      <c r="T44">
+        <v>1.567390310892461</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.0495907246533519</v>
+      </c>
+      <c r="W44">
+        <v>0.1745901838811793</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2254123847879632</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1233747543810873</v>
+      </c>
+      <c r="C45">
+        <v>-17.02877532445632</v>
+      </c>
+      <c r="D45">
+        <v>200.3643246755437</v>
+      </c>
+      <c r="E45">
+        <v>226.4231</v>
+      </c>
+      <c r="F45">
+        <v>229.6931</v>
+      </c>
+      <c r="G45">
+        <v>12.3</v>
+      </c>
+      <c r="H45">
+        <v>530.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>11.6</v>
+      </c>
+      <c r="K45">
+        <v>2.31</v>
+      </c>
+      <c r="L45">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M45">
+        <v>42.19462247</v>
+      </c>
+      <c r="N45">
+        <v>-32.90462247</v>
+      </c>
+      <c r="O45">
+        <v>-7.2390169434</v>
+      </c>
+      <c r="P45">
+        <v>-25.6656055266</v>
+      </c>
+      <c r="Q45">
+        <v>-23.3556055266</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08457873184384565</v>
+      </c>
+      <c r="T45">
+        <v>1.594888386522153</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04843745198699487</v>
+      </c>
+      <c r="W45">
+        <v>0.174802040069989</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2201702363045221</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1251187543810873</v>
+      </c>
+      <c r="C46">
+        <v>-25.38756339539495</v>
+      </c>
+      <c r="D46">
+        <v>197.347236604605</v>
+      </c>
+      <c r="E46">
+        <v>231.7648</v>
+      </c>
+      <c r="F46">
+        <v>235.0348</v>
+      </c>
+      <c r="G46">
+        <v>12.3</v>
+      </c>
+      <c r="H46">
+        <v>530.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>11.6</v>
+      </c>
+      <c r="K46">
+        <v>2.31</v>
+      </c>
+      <c r="L46">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M46">
+        <v>43.17589276</v>
+      </c>
+      <c r="N46">
+        <v>-33.88589276</v>
+      </c>
+      <c r="O46">
+        <v>-7.4548964072</v>
+      </c>
+      <c r="P46">
+        <v>-26.4309963528</v>
+      </c>
+      <c r="Q46">
+        <v>-24.1209963528</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08592299491248573</v>
+      </c>
+      <c r="T46">
+        <v>1.623368536281477</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04733660080547226</v>
+      </c>
+      <c r="W46">
+        <v>0.1750042664320347</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2151663672976012</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1268627543810873</v>
+      </c>
+      <c r="C47">
+        <v>-33.65683669401614</v>
+      </c>
+      <c r="D47">
+        <v>194.4196633059838</v>
+      </c>
+      <c r="E47">
+        <v>237.1065</v>
+      </c>
+      <c r="F47">
+        <v>240.3765</v>
+      </c>
+      <c r="G47">
+        <v>12.3</v>
+      </c>
+      <c r="H47">
+        <v>530.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11.6</v>
+      </c>
+      <c r="K47">
+        <v>2.31</v>
+      </c>
+      <c r="L47">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M47">
+        <v>44.15716305</v>
+      </c>
+      <c r="N47">
+        <v>-34.86716305</v>
+      </c>
+      <c r="O47">
+        <v>-7.670775871000001</v>
+      </c>
+      <c r="P47">
+        <v>-27.196387179</v>
+      </c>
+      <c r="Q47">
+        <v>-24.886387179</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08731614027453093</v>
+      </c>
+      <c r="T47">
+        <v>1.652884327850231</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04628467634312843</v>
+      </c>
+      <c r="W47">
+        <v>0.1751975049557673</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2103848924687656</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1286067543810873</v>
+      </c>
+      <c r="C48">
+        <v>-41.8405207423173</v>
+      </c>
+      <c r="D48">
+        <v>191.5776792576827</v>
+      </c>
+      <c r="E48">
+        <v>242.4482</v>
+      </c>
+      <c r="F48">
+        <v>245.7182</v>
+      </c>
+      <c r="G48">
+        <v>12.3</v>
+      </c>
+      <c r="H48">
+        <v>530.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11.6</v>
+      </c>
+      <c r="K48">
+        <v>2.31</v>
+      </c>
+      <c r="L48">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M48">
+        <v>45.13843334</v>
+      </c>
+      <c r="N48">
+        <v>-35.84843334</v>
+      </c>
+      <c r="O48">
+        <v>-7.8866553348</v>
+      </c>
+      <c r="P48">
+        <v>-27.9617780052</v>
+      </c>
+      <c r="Q48">
+        <v>-25.6517780052</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08876088361294818</v>
+      </c>
+      <c r="T48">
+        <v>1.683493296884495</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.04527848772697347</v>
+      </c>
+      <c r="W48">
+        <v>0.175382341804555</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2058113078498793</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1303507543810873</v>
+      </c>
+      <c r="C49">
+        <v>-49.94231483948877</v>
+      </c>
+      <c r="D49">
+        <v>188.8175851605112</v>
+      </c>
+      <c r="E49">
+        <v>247.7899</v>
+      </c>
+      <c r="F49">
+        <v>251.0599</v>
+      </c>
+      <c r="G49">
+        <v>12.3</v>
+      </c>
+      <c r="H49">
+        <v>530.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11.6</v>
+      </c>
+      <c r="K49">
+        <v>2.31</v>
+      </c>
+      <c r="L49">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M49">
+        <v>46.11970363</v>
+      </c>
+      <c r="N49">
+        <v>-36.82970363</v>
+      </c>
+      <c r="O49">
+        <v>-8.102534798600001</v>
+      </c>
+      <c r="P49">
+        <v>-28.7271688314</v>
+      </c>
+      <c r="Q49">
+        <v>-26.41716883140001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09026014556790946</v>
+      </c>
+      <c r="T49">
+        <v>1.715257321354014</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.04431511564767616</v>
+      </c>
+      <c r="W49">
+        <v>0.1755593132555219</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2014323438530734</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1320947543810873</v>
+      </c>
+      <c r="C50">
+        <v>-57.96570812663006</v>
+      </c>
+      <c r="D50">
+        <v>186.1358918733699</v>
+      </c>
+      <c r="E50">
+        <v>253.1316</v>
+      </c>
+      <c r="F50">
+        <v>256.4016</v>
+      </c>
+      <c r="G50">
+        <v>12.3</v>
+      </c>
+      <c r="H50">
+        <v>530.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11.6</v>
+      </c>
+      <c r="K50">
+        <v>2.31</v>
+      </c>
+      <c r="L50">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M50">
+        <v>47.10097391999999</v>
+      </c>
+      <c r="N50">
+        <v>-37.81097392</v>
+      </c>
+      <c r="O50">
+        <v>-8.318414262399999</v>
+      </c>
+      <c r="P50">
+        <v>-29.4925596576</v>
+      </c>
+      <c r="Q50">
+        <v>-27.1825596576</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0918170714442154</v>
+      </c>
+      <c r="T50">
+        <v>1.74824303907236</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.04339188407168291</v>
+      </c>
+      <c r="W50">
+        <v>0.1757289108960318</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1972358366894678</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1338387543810873</v>
+      </c>
+      <c r="C51">
+        <v>-65.91399430167579</v>
+      </c>
+      <c r="D51">
+        <v>183.5293056983242</v>
+      </c>
+      <c r="E51">
+        <v>258.4733</v>
+      </c>
+      <c r="F51">
+        <v>261.7433</v>
+      </c>
+      <c r="G51">
+        <v>12.3</v>
+      </c>
+      <c r="H51">
+        <v>530.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11.6</v>
+      </c>
+      <c r="K51">
+        <v>2.31</v>
+      </c>
+      <c r="L51">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M51">
+        <v>48.08224421</v>
+      </c>
+      <c r="N51">
+        <v>-38.79224421</v>
+      </c>
+      <c r="O51">
+        <v>-8.5342937262</v>
+      </c>
+      <c r="P51">
+        <v>-30.2579504838</v>
+      </c>
+      <c r="Q51">
+        <v>-27.9479504838</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09343505323723923</v>
+      </c>
+      <c r="T51">
+        <v>1.782522314348289</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.04250633541715876</v>
+      </c>
+      <c r="W51">
+        <v>0.1758915861838679</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1932106155325398</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1355827543810873</v>
+      </c>
+      <c r="C52">
+        <v>-73.79028511501826</v>
+      </c>
+      <c r="D52">
+        <v>180.9947148849817</v>
+      </c>
+      <c r="E52">
+        <v>263.815</v>
+      </c>
+      <c r="F52">
+        <v>267.085</v>
+      </c>
+      <c r="G52">
+        <v>12.3</v>
+      </c>
+      <c r="H52">
+        <v>530.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>11.6</v>
+      </c>
+      <c r="K52">
+        <v>2.31</v>
+      </c>
+      <c r="L52">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M52">
+        <v>49.0635145</v>
+      </c>
+      <c r="N52">
+        <v>-39.7735145</v>
+      </c>
+      <c r="O52">
+        <v>-8.75017319</v>
+      </c>
+      <c r="P52">
+        <v>-31.02334131</v>
+      </c>
+      <c r="Q52">
+        <v>-28.71334131</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09511775430198402</v>
+      </c>
+      <c r="T52">
+        <v>1.818172760635255</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.04165620870881559</v>
+      </c>
+      <c r="W52">
+        <v>0.1760477544601906</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.189346403221889</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1373267543810873</v>
+      </c>
+      <c r="C53">
+        <v>-81.59752276209335</v>
+      </c>
+      <c r="D53">
+        <v>178.5291772379066</v>
+      </c>
+      <c r="E53">
+        <v>269.1567</v>
+      </c>
+      <c r="F53">
+        <v>272.4267</v>
+      </c>
+      <c r="G53">
+        <v>12.3</v>
+      </c>
+      <c r="H53">
+        <v>530.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>11.6</v>
+      </c>
+      <c r="K53">
+        <v>2.31</v>
+      </c>
+      <c r="L53">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M53">
+        <v>50.04478478999999</v>
+      </c>
+      <c r="N53">
+        <v>-40.75478479</v>
+      </c>
+      <c r="O53">
+        <v>-8.966052653799998</v>
+      </c>
+      <c r="P53">
+        <v>-31.7887321362</v>
+      </c>
+      <c r="Q53">
+        <v>-29.4787321362</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09686913704284084</v>
+      </c>
+      <c r="T53">
+        <v>1.855278327178831</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.04083942030276039</v>
+      </c>
+      <c r="W53">
+        <v>0.1761977984903829</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1856337286489108</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1390707543810873</v>
+      </c>
+      <c r="C54">
+        <v>-89.33849127669706</v>
+      </c>
+      <c r="D54">
+        <v>176.1299087233029</v>
+      </c>
+      <c r="E54">
+        <v>274.4984</v>
+      </c>
+      <c r="F54">
+        <v>277.7684</v>
+      </c>
+      <c r="G54">
+        <v>12.3</v>
+      </c>
+      <c r="H54">
+        <v>530.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>11.6</v>
+      </c>
+      <c r="K54">
+        <v>2.31</v>
+      </c>
+      <c r="L54">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M54">
+        <v>51.02605508</v>
+      </c>
+      <c r="N54">
+        <v>-41.73605508</v>
+      </c>
+      <c r="O54">
+        <v>-9.181932117600001</v>
+      </c>
+      <c r="P54">
+        <v>-32.5541229624</v>
+      </c>
+      <c r="Q54">
+        <v>-30.2441229624</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09869349406456671</v>
+      </c>
+      <c r="T54">
+        <v>1.893929958995057</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.0400540468353996</v>
+      </c>
+      <c r="W54">
+        <v>0.1763420715963371</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1820638492518164</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1408147543810873</v>
+      </c>
+      <c r="C55">
+        <v>-97.01582701778929</v>
+      </c>
+      <c r="D55">
+        <v>173.7942729822107</v>
+      </c>
+      <c r="E55">
+        <v>279.8401</v>
+      </c>
+      <c r="F55">
+        <v>283.1101</v>
+      </c>
+      <c r="G55">
+        <v>12.3</v>
+      </c>
+      <c r="H55">
+        <v>530.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>11.6</v>
+      </c>
+      <c r="K55">
+        <v>2.31</v>
+      </c>
+      <c r="L55">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M55">
+        <v>52.00732537</v>
+      </c>
+      <c r="N55">
+        <v>-42.71732537</v>
+      </c>
+      <c r="O55">
+        <v>-9.397811581399999</v>
+      </c>
+      <c r="P55">
+        <v>-33.3195137886</v>
+      </c>
+      <c r="Q55">
+        <v>-31.0095137886</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.100595483299983</v>
+      </c>
+      <c r="T55">
+        <v>1.934226341101335</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03929831010265621</v>
+      </c>
+      <c r="W55">
+        <v>0.1764809004341421</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.178628682284801</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1425587543810873</v>
+      </c>
+      <c r="C56">
+        <v>-104.6320283328338</v>
+      </c>
+      <c r="D56">
+        <v>171.5197716671662</v>
+      </c>
+      <c r="E56">
+        <v>285.1818</v>
+      </c>
+      <c r="F56">
+        <v>288.4518</v>
+      </c>
+      <c r="G56">
+        <v>12.3</v>
+      </c>
+      <c r="H56">
+        <v>530.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>11.6</v>
+      </c>
+      <c r="K56">
+        <v>2.31</v>
+      </c>
+      <c r="L56">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M56">
+        <v>52.98859566</v>
+      </c>
+      <c r="N56">
+        <v>-43.69859566</v>
+      </c>
+      <c r="O56">
+        <v>-9.613691045200001</v>
+      </c>
+      <c r="P56">
+        <v>-34.0849046148</v>
+      </c>
+      <c r="Q56">
+        <v>-31.7749046148</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1025801677195479</v>
+      </c>
+      <c r="T56">
+        <v>1.976274739820929</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03857056361927369</v>
+      </c>
+      <c r="W56">
+        <v>0.1766145874631394</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1753207437239713</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1443027543810873</v>
+      </c>
+      <c r="C57">
+        <v>-112.1894644721362</v>
+      </c>
+      <c r="D57">
+        <v>169.3040355278638</v>
+      </c>
+      <c r="E57">
+        <v>290.5235</v>
+      </c>
+      <c r="F57">
+        <v>293.7935</v>
+      </c>
+      <c r="G57">
+        <v>12.3</v>
+      </c>
+      <c r="H57">
+        <v>530.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>11.6</v>
+      </c>
+      <c r="K57">
+        <v>2.31</v>
+      </c>
+      <c r="L57">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M57">
+        <v>53.96986595</v>
+      </c>
+      <c r="N57">
+        <v>-44.67986595</v>
+      </c>
+      <c r="O57">
+        <v>-9.829570509</v>
+      </c>
+      <c r="P57">
+        <v>-34.850295441</v>
+      </c>
+      <c r="Q57">
+        <v>-32.540295441</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1046530603355378</v>
+      </c>
+      <c r="T57">
+        <v>2.020191956261395</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03786928064437781</v>
+      </c>
+      <c r="W57">
+        <v>0.1767434131456278</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.172133093838081</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1460467543810873</v>
+      </c>
+      <c r="C58">
+        <v>-119.6903838210484</v>
+      </c>
+      <c r="D58">
+        <v>167.1448161789515</v>
+      </c>
+      <c r="E58">
+        <v>295.8652</v>
+      </c>
+      <c r="F58">
+        <v>299.1352</v>
+      </c>
+      <c r="G58">
+        <v>12.3</v>
+      </c>
+      <c r="H58">
+        <v>530.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>11.6</v>
+      </c>
+      <c r="K58">
+        <v>2.31</v>
+      </c>
+      <c r="L58">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M58">
+        <v>54.95113624</v>
+      </c>
+      <c r="N58">
+        <v>-45.66113624</v>
+      </c>
+      <c r="O58">
+        <v>-10.0454499728</v>
+      </c>
+      <c r="P58">
+        <v>-35.6156862672</v>
+      </c>
+      <c r="Q58">
+        <v>-33.3056862672</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1068201753431637</v>
+      </c>
+      <c r="T58">
+        <v>2.06610540981279</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03719304349001392</v>
+      </c>
+      <c r="W58">
+        <v>0.1768676379108844</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1690592885909724</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1477907543810873</v>
+      </c>
+      <c r="C59">
+        <v>-127.1369215101693</v>
+      </c>
+      <c r="D59">
+        <v>165.0399784898307</v>
+      </c>
+      <c r="E59">
+        <v>301.2069</v>
+      </c>
+      <c r="F59">
+        <v>304.4769</v>
+      </c>
+      <c r="G59">
+        <v>12.3</v>
+      </c>
+      <c r="H59">
+        <v>530.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>11.6</v>
+      </c>
+      <c r="K59">
+        <v>2.31</v>
+      </c>
+      <c r="L59">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M59">
+        <v>55.93240653</v>
+      </c>
+      <c r="N59">
+        <v>-46.64240653</v>
+      </c>
+      <c r="O59">
+        <v>-10.2613294366</v>
+      </c>
+      <c r="P59">
+        <v>-36.3810770934</v>
+      </c>
+      <c r="Q59">
+        <v>-34.0710770934</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1090880863976559</v>
+      </c>
+      <c r="T59">
+        <v>2.114154372831692</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03654053395510139</v>
+      </c>
+      <c r="W59">
+        <v>0.1769875039124479</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1660933361595518</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1495347543810873</v>
+      </c>
+      <c r="C60">
+        <v>-134.5311064576887</v>
+      </c>
+      <c r="D60">
+        <v>162.9874935423113</v>
+      </c>
+      <c r="E60">
+        <v>306.5486</v>
+      </c>
+      <c r="F60">
+        <v>309.8185999999999</v>
+      </c>
+      <c r="G60">
+        <v>12.3</v>
+      </c>
+      <c r="H60">
+        <v>530.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>11.6</v>
+      </c>
+      <c r="K60">
+        <v>2.31</v>
+      </c>
+      <c r="L60">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M60">
+        <v>56.91367681999999</v>
+      </c>
+      <c r="N60">
+        <v>-47.62367681999999</v>
+      </c>
+      <c r="O60">
+        <v>-10.4772089004</v>
+      </c>
+      <c r="P60">
+        <v>-37.14646791959999</v>
+      </c>
+      <c r="Q60">
+        <v>-34.83646791959999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1114639932166476</v>
+      </c>
+      <c r="T60">
+        <v>2.164491381708636</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03591052474897895</v>
+      </c>
+      <c r="W60">
+        <v>0.1771032366036126</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1632296579499044</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1512787543810873</v>
+      </c>
+      <c r="C61">
+        <v>-141.8748678927033</v>
+      </c>
+      <c r="D61">
+        <v>160.9854321072966</v>
+      </c>
+      <c r="E61">
+        <v>311.8903</v>
+      </c>
+      <c r="F61">
+        <v>315.1602999999999</v>
+      </c>
+      <c r="G61">
+        <v>12.3</v>
+      </c>
+      <c r="H61">
+        <v>530.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>11.6</v>
+      </c>
+      <c r="K61">
+        <v>2.31</v>
+      </c>
+      <c r="L61">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M61">
+        <v>57.89494710999999</v>
+      </c>
+      <c r="N61">
+        <v>-48.60494710999999</v>
+      </c>
+      <c r="O61">
+        <v>-10.6930883642</v>
+      </c>
+      <c r="P61">
+        <v>-37.91185874579999</v>
+      </c>
+      <c r="Q61">
+        <v>-35.60185874579999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1139557979292488</v>
+      </c>
+      <c r="T61">
+        <v>2.217283854433237</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03530187178713186</v>
+      </c>
+      <c r="W61">
+        <v>0.1772150461527039</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1604630535778721</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1530227543810873</v>
+      </c>
+      <c r="C62">
+        <v>-149.17004140359</v>
+      </c>
+      <c r="D62">
+        <v>159.0319585964099</v>
+      </c>
+      <c r="E62">
+        <v>317.232</v>
+      </c>
+      <c r="F62">
+        <v>320.502</v>
+      </c>
+      <c r="G62">
+        <v>12.3</v>
+      </c>
+      <c r="H62">
+        <v>530.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>11.6</v>
+      </c>
+      <c r="K62">
+        <v>2.31</v>
+      </c>
+      <c r="L62">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M62">
+        <v>58.87621739999999</v>
+      </c>
+      <c r="N62">
+        <v>-49.5862174</v>
+      </c>
+      <c r="O62">
+        <v>-10.908967828</v>
+      </c>
+      <c r="P62">
+        <v>-38.67724957199999</v>
+      </c>
+      <c r="Q62">
+        <v>-36.36724957199999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.11657219287748</v>
+      </c>
+      <c r="T62">
+        <v>2.272715950794068</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03471350725734632</v>
+      </c>
+      <c r="W62">
+        <v>0.1773231287168255</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1577886693515742</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1547667543810873</v>
+      </c>
+      <c r="C63">
+        <v>-156.4183745512956</v>
+      </c>
+      <c r="D63">
+        <v>157.1253254487043</v>
+      </c>
+      <c r="E63">
+        <v>322.5737</v>
+      </c>
+      <c r="F63">
+        <v>325.8437</v>
+      </c>
+      <c r="G63">
+        <v>12.3</v>
+      </c>
+      <c r="H63">
+        <v>530.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>11.6</v>
+      </c>
+      <c r="K63">
+        <v>2.31</v>
+      </c>
+      <c r="L63">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M63">
+        <v>59.85748768999999</v>
+      </c>
+      <c r="N63">
+        <v>-50.56748768999999</v>
+      </c>
+      <c r="O63">
+        <v>-11.1248472918</v>
+      </c>
+      <c r="P63">
+        <v>-39.4426403982</v>
+      </c>
+      <c r="Q63">
+        <v>-37.1326403982</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1193227619256205</v>
+      </c>
+      <c r="T63">
+        <v>2.330990718763147</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.03414443336788163</v>
+      </c>
+      <c r="W63">
+        <v>0.1774276675903201</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1552019698540075</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1565107543810873</v>
+      </c>
+      <c r="C64">
+        <v>-163.6215320836249</v>
+      </c>
+      <c r="D64">
+        <v>155.2638679163751</v>
+      </c>
+      <c r="E64">
+        <v>327.9154</v>
+      </c>
+      <c r="F64">
+        <v>331.1854</v>
+      </c>
+      <c r="G64">
+        <v>12.3</v>
+      </c>
+      <c r="H64">
+        <v>530.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>11.6</v>
+      </c>
+      <c r="K64">
+        <v>2.31</v>
+      </c>
+      <c r="L64">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M64">
+        <v>60.83875797999999</v>
+      </c>
+      <c r="N64">
+        <v>-51.54875797999999</v>
+      </c>
+      <c r="O64">
+        <v>-11.3407267556</v>
+      </c>
+      <c r="P64">
+        <v>-40.20803122439999</v>
+      </c>
+      <c r="Q64">
+        <v>-37.89803122439999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1222180977657685</v>
+      </c>
+      <c r="T64">
+        <v>2.39233257978323</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.03359371670065774</v>
+      </c>
+      <c r="W64">
+        <v>0.1775288342420892</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.152698712275717</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1582547543810873</v>
+      </c>
+      <c r="C65">
+        <v>-170.781100783226</v>
+      </c>
+      <c r="D65">
+        <v>153.4459992167739</v>
+      </c>
+      <c r="E65">
+        <v>333.2571</v>
+      </c>
+      <c r="F65">
+        <v>336.5271</v>
+      </c>
+      <c r="G65">
+        <v>12.3</v>
+      </c>
+      <c r="H65">
+        <v>530.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>11.6</v>
+      </c>
+      <c r="K65">
+        <v>2.31</v>
+      </c>
+      <c r="L65">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M65">
+        <v>61.82002826999999</v>
+      </c>
+      <c r="N65">
+        <v>-52.53002827</v>
+      </c>
+      <c r="O65">
+        <v>-11.5566062194</v>
+      </c>
+      <c r="P65">
+        <v>-40.97342205059999</v>
+      </c>
+      <c r="Q65">
+        <v>-38.66342205059999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1252699382459244</v>
+      </c>
+      <c r="T65">
+        <v>2.456990217074669</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.0330604831022346</v>
+      </c>
+      <c r="W65">
+        <v>0.1776267892541195</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1502749231919754</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1599987543810873</v>
+      </c>
+      <c r="C66">
+        <v>-177.8985939789503</v>
+      </c>
+      <c r="D66">
+        <v>151.6702060210497</v>
+      </c>
+      <c r="E66">
+        <v>338.5988</v>
+      </c>
+      <c r="F66">
+        <v>341.8688</v>
+      </c>
+      <c r="G66">
+        <v>12.3</v>
+      </c>
+      <c r="H66">
+        <v>530.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>11.6</v>
+      </c>
+      <c r="K66">
+        <v>2.31</v>
+      </c>
+      <c r="L66">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M66">
+        <v>62.80129855999999</v>
+      </c>
+      <c r="N66">
+        <v>-53.51129855999999</v>
+      </c>
+      <c r="O66">
+        <v>-11.7724856832</v>
+      </c>
+      <c r="P66">
+        <v>-41.7388128768</v>
+      </c>
+      <c r="Q66">
+        <v>-39.4288128768</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1284913254194223</v>
+      </c>
+      <c r="T66">
+        <v>2.525239945326743</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03254391305376218</v>
+      </c>
+      <c r="W66">
+        <v>0.1777216831720239</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1479268775171009</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1617427543810873</v>
+      </c>
+      <c r="C67">
+        <v>-184.9754557475409</v>
+      </c>
+      <c r="D67">
+        <v>149.9350442524591</v>
+      </c>
+      <c r="E67">
+        <v>343.9405</v>
+      </c>
+      <c r="F67">
+        <v>347.2105</v>
+      </c>
+      <c r="G67">
+        <v>12.3</v>
+      </c>
+      <c r="H67">
+        <v>530.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>11.6</v>
+      </c>
+      <c r="K67">
+        <v>2.31</v>
+      </c>
+      <c r="L67">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M67">
+        <v>63.78256885</v>
+      </c>
+      <c r="N67">
+        <v>-54.49256885</v>
+      </c>
+      <c r="O67">
+        <v>-11.988365147</v>
+      </c>
+      <c r="P67">
+        <v>-42.504203703</v>
+      </c>
+      <c r="Q67">
+        <v>-40.194203703</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1318967918599772</v>
+      </c>
+      <c r="T67">
+        <v>2.597389658050364</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03204323746831968</v>
+      </c>
+      <c r="W67">
+        <v>0.1778136572770697</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1456510794014531</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1634867543810873</v>
+      </c>
+      <c r="C68">
+        <v>-192.0130648301719</v>
+      </c>
+      <c r="D68">
+        <v>148.239135169828</v>
+      </c>
+      <c r="E68">
+        <v>349.2822</v>
+      </c>
+      <c r="F68">
+        <v>352.5522</v>
+      </c>
+      <c r="G68">
+        <v>12.3</v>
+      </c>
+      <c r="H68">
+        <v>530.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>11.6</v>
+      </c>
+      <c r="K68">
+        <v>2.31</v>
+      </c>
+      <c r="L68">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M68">
+        <v>64.76383914</v>
+      </c>
+      <c r="N68">
+        <v>-55.47383914</v>
+      </c>
+      <c r="O68">
+        <v>-12.2042446108</v>
+      </c>
+      <c r="P68">
+        <v>-43.26959452920001</v>
+      </c>
+      <c r="Q68">
+        <v>-40.9595945292</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1355025798558589</v>
+      </c>
+      <c r="T68">
+        <v>2.673783471522434</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.03155773387031484</v>
+      </c>
+      <c r="W68">
+        <v>0.1779028442880232</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1434442448650675</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1652307543810873</v>
+      </c>
+      <c r="C69">
+        <v>-199.0127382861609</v>
+      </c>
+      <c r="D69">
+        <v>146.581161713839</v>
+      </c>
+      <c r="E69">
+        <v>354.6239</v>
+      </c>
+      <c r="F69">
+        <v>357.8939</v>
+      </c>
+      <c r="G69">
+        <v>12.3</v>
+      </c>
+      <c r="H69">
+        <v>530.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>11.6</v>
+      </c>
+      <c r="K69">
+        <v>2.31</v>
+      </c>
+      <c r="L69">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M69">
+        <v>65.74510943</v>
+      </c>
+      <c r="N69">
+        <v>-56.45510943</v>
+      </c>
+      <c r="O69">
+        <v>-12.4201240746</v>
+      </c>
+      <c r="P69">
+        <v>-44.0349853554</v>
+      </c>
+      <c r="Q69">
+        <v>-41.72498535539999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1393269004575516</v>
+      </c>
+      <c r="T69">
+        <v>2.75480721308372</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03108672291702656</v>
+      </c>
+      <c r="W69">
+        <v>0.1779893690001422</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1413032859864843</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1669747543810873</v>
+      </c>
+      <c r="C70">
+        <v>-205.9757349042047</v>
+      </c>
+      <c r="D70">
+        <v>144.9598650957953</v>
+      </c>
+      <c r="E70">
+        <v>359.9656</v>
+      </c>
+      <c r="F70">
+        <v>363.2356</v>
+      </c>
+      <c r="G70">
+        <v>12.3</v>
+      </c>
+      <c r="H70">
+        <v>530.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>11.6</v>
+      </c>
+      <c r="K70">
+        <v>2.31</v>
+      </c>
+      <c r="L70">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M70">
+        <v>66.72637972</v>
+      </c>
+      <c r="N70">
+        <v>-57.43637972</v>
+      </c>
+      <c r="O70">
+        <v>-12.6360035384</v>
+      </c>
+      <c r="P70">
+        <v>-44.8003761816</v>
+      </c>
+      <c r="Q70">
+        <v>-42.4903761816</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1433902410968501</v>
+      </c>
+      <c r="T70">
+        <v>2.840894938492586</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.03062956522707028</v>
+      </c>
+      <c r="W70">
+        <v>0.1780733488677872</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1392252964866831</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1687187543810873</v>
+      </c>
+      <c r="C71">
+        <v>-212.9032583897071</v>
+      </c>
+      <c r="D71">
+        <v>143.3740416102929</v>
+      </c>
+      <c r="E71">
+        <v>365.3073</v>
+      </c>
+      <c r="F71">
+        <v>368.5773</v>
+      </c>
+      <c r="G71">
+        <v>12.3</v>
+      </c>
+      <c r="H71">
+        <v>530.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>11.6</v>
+      </c>
+      <c r="K71">
+        <v>2.31</v>
+      </c>
+      <c r="L71">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M71">
+        <v>67.70765000999999</v>
+      </c>
+      <c r="N71">
+        <v>-58.41765001</v>
+      </c>
+      <c r="O71">
+        <v>-12.8518830022</v>
+      </c>
+      <c r="P71">
+        <v>-45.5657670078</v>
+      </c>
+      <c r="Q71">
+        <v>-43.2557670078</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1477157327451356</v>
+      </c>
+      <c r="T71">
+        <v>2.932536710702025</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.03018565848464898</v>
+      </c>
+      <c r="W71">
+        <v>0.17815489453637</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1372075385665863</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1704627543810873</v>
+      </c>
+      <c r="C72">
+        <v>-219.7964603451595</v>
+      </c>
+      <c r="D72">
+        <v>141.8225396548405</v>
+      </c>
+      <c r="E72">
+        <v>370.649</v>
+      </c>
+      <c r="F72">
+        <v>373.919</v>
+      </c>
+      <c r="G72">
+        <v>12.3</v>
+      </c>
+      <c r="H72">
+        <v>530.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>11.6</v>
+      </c>
+      <c r="K72">
+        <v>2.31</v>
+      </c>
+      <c r="L72">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M72">
+        <v>68.68892029999999</v>
+      </c>
+      <c r="N72">
+        <v>-59.39892029999999</v>
+      </c>
+      <c r="O72">
+        <v>-13.067762466</v>
+      </c>
+      <c r="P72">
+        <v>-46.331157834</v>
+      </c>
+      <c r="Q72">
+        <v>-44.02115783399999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1523295905033067</v>
+      </c>
+      <c r="T72">
+        <v>3.030287934392092</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02975443479201114</v>
+      </c>
+      <c r="W72">
+        <v>0.1782341103287076</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1352474308727779</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1722067543810873</v>
+      </c>
+      <c r="C73">
+        <v>-226.656443059082</v>
+      </c>
+      <c r="D73">
+        <v>140.3042569409179</v>
+      </c>
+      <c r="E73">
+        <v>375.9906999999999</v>
+      </c>
+      <c r="F73">
+        <v>379.2606999999999</v>
+      </c>
+      <c r="G73">
+        <v>12.3</v>
+      </c>
+      <c r="H73">
+        <v>530.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>11.6</v>
+      </c>
+      <c r="K73">
+        <v>2.31</v>
+      </c>
+      <c r="L73">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M73">
+        <v>69.67019058999999</v>
+      </c>
+      <c r="N73">
+        <v>-60.38019058999999</v>
+      </c>
+      <c r="O73">
+        <v>-13.2836419298</v>
+      </c>
+      <c r="P73">
+        <v>-47.09654866019999</v>
+      </c>
+      <c r="Q73">
+        <v>-44.78654866019999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1572616453482483</v>
+      </c>
+      <c r="T73">
+        <v>3.134780621784922</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02933535824564478</v>
+      </c>
+      <c r="W73">
+        <v>0.1783110946902751</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1333425374802035</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1739507543810873</v>
+      </c>
+      <c r="C74">
+        <v>-233.4842621177207</v>
+      </c>
+      <c r="D74">
+        <v>138.8181378822792</v>
+      </c>
+      <c r="E74">
+        <v>381.3324</v>
+      </c>
+      <c r="F74">
+        <v>384.6023999999999</v>
+      </c>
+      <c r="G74">
+        <v>12.3</v>
+      </c>
+      <c r="H74">
+        <v>530.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>11.6</v>
+      </c>
+      <c r="K74">
+        <v>2.31</v>
+      </c>
+      <c r="L74">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M74">
+        <v>70.65146087999999</v>
+      </c>
+      <c r="N74">
+        <v>-61.36146087999999</v>
+      </c>
+      <c r="O74">
+        <v>-13.4995213936</v>
+      </c>
+      <c r="P74">
+        <v>-47.86193948639999</v>
+      </c>
+      <c r="Q74">
+        <v>-45.55193948639999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1625459898249715</v>
+      </c>
+      <c r="T74">
+        <v>3.246737072562955</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02892792271445527</v>
+      </c>
+      <c r="W74">
+        <v>0.1783859405973545</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1314905577929785</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1756947543810873</v>
+      </c>
+      <c r="C75">
+        <v>-240.2809288525026</v>
+      </c>
+      <c r="D75">
+        <v>137.3631711474973</v>
+      </c>
+      <c r="E75">
+        <v>386.6741</v>
+      </c>
+      <c r="F75">
+        <v>389.9440999999999</v>
+      </c>
+      <c r="G75">
+        <v>12.3</v>
+      </c>
+      <c r="H75">
+        <v>530.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>11.6</v>
+      </c>
+      <c r="K75">
+        <v>2.31</v>
+      </c>
+      <c r="L75">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M75">
+        <v>71.63273116999999</v>
+      </c>
+      <c r="N75">
+        <v>-62.34273116999999</v>
+      </c>
+      <c r="O75">
+        <v>-13.7154008574</v>
+      </c>
+      <c r="P75">
+        <v>-48.62733031259999</v>
+      </c>
+      <c r="Q75">
+        <v>-46.31733031259999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1682217672258964</v>
+      </c>
+      <c r="T75">
+        <v>3.36698659376899</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02853164980055863</v>
+      </c>
+      <c r="W75">
+        <v>0.1784587359316374</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1296893172752664</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1774387543810873</v>
+      </c>
+      <c r="C76">
+        <v>-247.047412635177</v>
+      </c>
+      <c r="D76">
+        <v>135.938387364823</v>
+      </c>
+      <c r="E76">
+        <v>392.0158</v>
+      </c>
+      <c r="F76">
+        <v>395.2857999999999</v>
+      </c>
+      <c r="G76">
+        <v>12.3</v>
+      </c>
+      <c r="H76">
+        <v>530.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>11.6</v>
+      </c>
+      <c r="K76">
+        <v>2.31</v>
+      </c>
+      <c r="L76">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M76">
+        <v>72.61400145999998</v>
+      </c>
+      <c r="N76">
+        <v>-63.32400145999998</v>
+      </c>
+      <c r="O76">
+        <v>-13.9312803212</v>
+      </c>
+      <c r="P76">
+        <v>-49.39272113879998</v>
+      </c>
+      <c r="Q76">
+        <v>-47.08272113879998</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1743341428884308</v>
+      </c>
+      <c r="T76">
+        <v>3.49648607814472</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02814608696541595</v>
+      </c>
+      <c r="W76">
+        <v>0.1785295638244531</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1279367589337088</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1791827543810873</v>
+      </c>
+      <c r="C77">
+        <v>-253.7846430315845</v>
+      </c>
+      <c r="D77">
+        <v>134.5428569684154</v>
+      </c>
+      <c r="E77">
+        <v>397.3575</v>
+      </c>
+      <c r="F77">
+        <v>400.6274999999999</v>
+      </c>
+      <c r="G77">
+        <v>12.3</v>
+      </c>
+      <c r="H77">
+        <v>530.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>11.6</v>
+      </c>
+      <c r="K77">
+        <v>2.31</v>
+      </c>
+      <c r="L77">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M77">
+        <v>73.59527174999999</v>
+      </c>
+      <c r="N77">
+        <v>-64.30527175</v>
+      </c>
+      <c r="O77">
+        <v>-14.147159785</v>
+      </c>
+      <c r="P77">
+        <v>-50.158111965</v>
+      </c>
+      <c r="Q77">
+        <v>-47.848111965</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.180935508603968</v>
+      </c>
+      <c r="T77">
+        <v>3.636345521270509</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02777080580587706</v>
+      </c>
+      <c r="W77">
+        <v>0.1785985029734604</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1262309354812593</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1809267543810873</v>
+      </c>
+      <c r="C78">
+        <v>-260.493511824114</v>
+      </c>
+      <c r="D78">
+        <v>133.1756881758861</v>
+      </c>
+      <c r="E78">
+        <v>402.6992</v>
+      </c>
+      <c r="F78">
+        <v>405.9692</v>
+      </c>
+      <c r="G78">
+        <v>12.3</v>
+      </c>
+      <c r="H78">
+        <v>530.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>11.6</v>
+      </c>
+      <c r="K78">
+        <v>2.31</v>
+      </c>
+      <c r="L78">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M78">
+        <v>74.57654204000001</v>
+      </c>
+      <c r="N78">
+        <v>-65.28654204</v>
+      </c>
+      <c r="O78">
+        <v>-14.3630392488</v>
+      </c>
+      <c r="P78">
+        <v>-50.9235027912</v>
+      </c>
+      <c r="Q78">
+        <v>-48.6135027912</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1880869881291334</v>
+      </c>
+      <c r="T78">
+        <v>3.787859917990115</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02740540046632604</v>
+      </c>
+      <c r="W78">
+        <v>0.1786656279343359</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.124570002119664</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1826707543810873</v>
+      </c>
+      <c r="C79">
+        <v>-267.1748749120891</v>
+      </c>
+      <c r="D79">
+        <v>131.8360250879109</v>
+      </c>
+      <c r="E79">
+        <v>408.0409</v>
+      </c>
+      <c r="F79">
+        <v>411.3109</v>
+      </c>
+      <c r="G79">
+        <v>12.3</v>
+      </c>
+      <c r="H79">
+        <v>530.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>11.6</v>
+      </c>
+      <c r="K79">
+        <v>2.31</v>
+      </c>
+      <c r="L79">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M79">
+        <v>75.55781233</v>
+      </c>
+      <c r="N79">
+        <v>-66.26781233</v>
+      </c>
+      <c r="O79">
+        <v>-14.5789187126</v>
+      </c>
+      <c r="P79">
+        <v>-51.6888936174</v>
+      </c>
+      <c r="Q79">
+        <v>-49.3788936174</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1958603354390957</v>
+      </c>
+      <c r="T79">
+        <v>3.952549479641859</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02704948617455558</v>
+      </c>
+      <c r="W79">
+        <v>0.1787310093897341</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1229522098843436</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1844147543810873</v>
+      </c>
+      <c r="C80">
+        <v>-273.8295540985998</v>
+      </c>
+      <c r="D80">
+        <v>130.5230459014002</v>
+      </c>
+      <c r="E80">
+        <v>413.3826</v>
+      </c>
+      <c r="F80">
+        <v>416.6526</v>
+      </c>
+      <c r="G80">
+        <v>12.3</v>
+      </c>
+      <c r="H80">
+        <v>530.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>11.6</v>
+      </c>
+      <c r="K80">
+        <v>2.31</v>
+      </c>
+      <c r="L80">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M80">
+        <v>76.53908262</v>
+      </c>
+      <c r="N80">
+        <v>-67.24908262</v>
+      </c>
+      <c r="O80">
+        <v>-14.7947981764</v>
+      </c>
+      <c r="P80">
+        <v>-52.4542844436</v>
+      </c>
+      <c r="Q80">
+        <v>-50.14428444359999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2043403506863274</v>
+      </c>
+      <c r="T80">
+        <v>4.13221081962558</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.0267026978902664</v>
+      </c>
+      <c r="W80">
+        <v>0.1787947143975581</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.121375899501211</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1861587543810873</v>
+      </c>
+      <c r="C81">
+        <v>-280.4583387716127</v>
+      </c>
+      <c r="D81">
+        <v>129.2359612283873</v>
+      </c>
+      <c r="E81">
+        <v>418.7243</v>
+      </c>
+      <c r="F81">
+        <v>421.9943</v>
+      </c>
+      <c r="G81">
+        <v>12.3</v>
+      </c>
+      <c r="H81">
+        <v>530.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>11.6</v>
+      </c>
+      <c r="K81">
+        <v>2.31</v>
+      </c>
+      <c r="L81">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M81">
+        <v>77.52035291</v>
+      </c>
+      <c r="N81">
+        <v>-68.23035290999999</v>
+      </c>
+      <c r="O81">
+        <v>-15.0106776402</v>
+      </c>
+      <c r="P81">
+        <v>-53.21967526979999</v>
+      </c>
+      <c r="Q81">
+        <v>-50.90967526979999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2136279864332953</v>
+      </c>
+      <c r="T81">
+        <v>4.328982763417274</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.0263646890562124</v>
+      </c>
+      <c r="W81">
+        <v>0.1788568066203738</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1198394957100565</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1879027543810873</v>
+      </c>
+      <c r="C82">
+        <v>-287.0619874865882</v>
+      </c>
+      <c r="D82">
+        <v>127.9740125134118</v>
+      </c>
+      <c r="E82">
+        <v>424.066</v>
+      </c>
+      <c r="F82">
+        <v>427.336</v>
+      </c>
+      <c r="G82">
+        <v>12.3</v>
+      </c>
+      <c r="H82">
+        <v>530.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>11.6</v>
+      </c>
+      <c r="K82">
+        <v>2.31</v>
+      </c>
+      <c r="L82">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M82">
+        <v>78.5016232</v>
+      </c>
+      <c r="N82">
+        <v>-69.21162319999999</v>
+      </c>
+      <c r="O82">
+        <v>-15.226557104</v>
+      </c>
+      <c r="P82">
+        <v>-53.985066096</v>
+      </c>
+      <c r="Q82">
+        <v>-51.67506609599999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2238443857549601</v>
+      </c>
+      <c r="T82">
+        <v>4.545431901588138</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02603513044300974</v>
+      </c>
+      <c r="W82">
+        <v>0.1789173465376191</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1183415020136808</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1896467543810873</v>
+      </c>
+      <c r="C83">
+        <v>-293.6412294572731</v>
+      </c>
+      <c r="D83">
+        <v>126.7364705427269</v>
+      </c>
+      <c r="E83">
+        <v>429.4077</v>
+      </c>
+      <c r="F83">
+        <v>432.6777</v>
+      </c>
+      <c r="G83">
+        <v>12.3</v>
+      </c>
+      <c r="H83">
+        <v>530.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>11.6</v>
+      </c>
+      <c r="K83">
+        <v>2.31</v>
+      </c>
+      <c r="L83">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M83">
+        <v>79.48289349000001</v>
+      </c>
+      <c r="N83">
+        <v>-70.19289349000002</v>
+      </c>
+      <c r="O83">
+        <v>-15.4424365678</v>
+      </c>
+      <c r="P83">
+        <v>-54.75045692220002</v>
+      </c>
+      <c r="Q83">
+        <v>-52.44045692220001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.235136195531537</v>
+      </c>
+      <c r="T83">
+        <v>4.784665159566462</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02571370907951579</v>
+      </c>
+      <c r="W83">
+        <v>0.1789763916420929</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1168804958159808</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1913907543810873</v>
+      </c>
+      <c r="C84">
+        <v>-300.1967659608221</v>
+      </c>
+      <c r="D84">
+        <v>125.522634039178</v>
+      </c>
+      <c r="E84">
+        <v>434.7494</v>
+      </c>
+      <c r="F84">
+        <v>438.0194</v>
+      </c>
+      <c r="G84">
+        <v>12.3</v>
+      </c>
+      <c r="H84">
+        <v>530.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>11.6</v>
+      </c>
+      <c r="K84">
+        <v>2.31</v>
+      </c>
+      <c r="L84">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M84">
+        <v>80.46416378000001</v>
+      </c>
+      <c r="N84">
+        <v>-71.17416378000001</v>
+      </c>
+      <c r="O84">
+        <v>-15.6583160316</v>
+      </c>
+      <c r="P84">
+        <v>-55.51584774840001</v>
+      </c>
+      <c r="Q84">
+        <v>-53.20584774840001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2476826508388446</v>
+      </c>
+      <c r="T84">
+        <v>5.050479890653487</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02540012726147292</v>
+      </c>
+      <c r="W84">
+        <v>0.1790339966220674</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1154551239157859</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1931347543810873</v>
+      </c>
+      <c r="C85">
+        <v>-306.7292716629393</v>
+      </c>
+      <c r="D85">
+        <v>124.3318283370607</v>
+      </c>
+      <c r="E85">
+        <v>440.0911</v>
+      </c>
+      <c r="F85">
+        <v>443.3611</v>
+      </c>
+      <c r="G85">
+        <v>12.3</v>
+      </c>
+      <c r="H85">
+        <v>530.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>11.6</v>
+      </c>
+      <c r="K85">
+        <v>2.31</v>
+      </c>
+      <c r="L85">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M85">
+        <v>81.44543407</v>
+      </c>
+      <c r="N85">
+        <v>-72.15543407000001</v>
+      </c>
+      <c r="O85">
+        <v>-15.8741954954</v>
+      </c>
+      <c r="P85">
+        <v>-56.28123857460001</v>
+      </c>
+      <c r="Q85">
+        <v>-53.97123857460001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2617051597117178</v>
+      </c>
+      <c r="T85">
+        <v>5.347566943044869</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02509410163181662</v>
+      </c>
+      <c r="W85">
+        <v>0.1790902135302353</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.114064098326439</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1948787543810873</v>
+      </c>
+      <c r="C86">
+        <v>-313.2393958683015</v>
+      </c>
+      <c r="D86">
+        <v>123.1634041316985</v>
+      </c>
+      <c r="E86">
+        <v>445.4328</v>
+      </c>
+      <c r="F86">
+        <v>448.7028</v>
+      </c>
+      <c r="G86">
+        <v>12.3</v>
+      </c>
+      <c r="H86">
+        <v>530.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>11.6</v>
+      </c>
+      <c r="K86">
+        <v>2.31</v>
+      </c>
+      <c r="L86">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M86">
+        <v>82.42670435999999</v>
+      </c>
+      <c r="N86">
+        <v>-73.13670435999998</v>
+      </c>
+      <c r="O86">
+        <v>-16.0900749592</v>
+      </c>
+      <c r="P86">
+        <v>-57.04662940079999</v>
+      </c>
+      <c r="Q86">
+        <v>-54.73662940079998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2774804821937</v>
+      </c>
+      <c r="T86">
+        <v>5.681789876985171</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02479536232667595</v>
+      </c>
+      <c r="W86">
+        <v>0.1791450919405896</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1127061923939817</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1966227543810873</v>
+      </c>
+      <c r="C87">
+        <v>-319.7277637011302</v>
+      </c>
+      <c r="D87">
+        <v>122.0167362988697</v>
+      </c>
+      <c r="E87">
+        <v>450.7745</v>
+      </c>
+      <c r="F87">
+        <v>454.0445</v>
+      </c>
+      <c r="G87">
+        <v>12.3</v>
+      </c>
+      <c r="H87">
+        <v>530.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>11.6</v>
+      </c>
+      <c r="K87">
+        <v>2.31</v>
+      </c>
+      <c r="L87">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M87">
+        <v>83.40797465</v>
+      </c>
+      <c r="N87">
+        <v>-74.11797465000001</v>
+      </c>
+      <c r="O87">
+        <v>-16.305954423</v>
+      </c>
+      <c r="P87">
+        <v>-57.812020227</v>
+      </c>
+      <c r="Q87">
+        <v>-55.502020227</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2953591810066134</v>
+      </c>
+      <c r="T87">
+        <v>6.060575868784182</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02450365218165623</v>
+      </c>
+      <c r="W87">
+        <v>0.1791986790942298</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1113802371893464</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1983667543810873</v>
+      </c>
+      <c r="C88">
+        <v>-326.1949772204257</v>
+      </c>
+      <c r="D88">
+        <v>120.8912227795743</v>
+      </c>
+      <c r="E88">
+        <v>456.1162</v>
+      </c>
+      <c r="F88">
+        <v>459.3862</v>
+      </c>
+      <c r="G88">
+        <v>12.3</v>
+      </c>
+      <c r="H88">
+        <v>530.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>11.6</v>
+      </c>
+      <c r="K88">
+        <v>2.31</v>
+      </c>
+      <c r="L88">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M88">
+        <v>84.38924494</v>
+      </c>
+      <c r="N88">
+        <v>-75.09924494000001</v>
+      </c>
+      <c r="O88">
+        <v>-16.5218338868</v>
+      </c>
+      <c r="P88">
+        <v>-58.57741105320001</v>
+      </c>
+      <c r="Q88">
+        <v>-56.26741105320001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3157919796499429</v>
+      </c>
+      <c r="T88">
+        <v>6.493474145125909</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02421872599349743</v>
+      </c>
+      <c r="W88">
+        <v>0.1792510200349945</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.110085118152261</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2001107543810873</v>
+      </c>
+      <c r="C89">
+        <v>-332.6416164740409</v>
+      </c>
+      <c r="D89">
+        <v>119.7862835259591</v>
+      </c>
+      <c r="E89">
+        <v>461.4579</v>
+      </c>
+      <c r="F89">
+        <v>464.7279</v>
+      </c>
+      <c r="G89">
+        <v>12.3</v>
+      </c>
+      <c r="H89">
+        <v>530.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>11.6</v>
+      </c>
+      <c r="K89">
+        <v>2.31</v>
+      </c>
+      <c r="L89">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M89">
+        <v>85.37051523</v>
+      </c>
+      <c r="N89">
+        <v>-76.08051523</v>
+      </c>
+      <c r="O89">
+        <v>-16.7377133506</v>
+      </c>
+      <c r="P89">
+        <v>-59.3428018794</v>
+      </c>
+      <c r="Q89">
+        <v>-57.0328018794</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3393682857768616</v>
+      </c>
+      <c r="T89">
+        <v>6.992972156289441</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02394034983265264</v>
+      </c>
+      <c r="W89">
+        <v>0.1793021577357417</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1088197719666029</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2018547543810873</v>
+      </c>
+      <c r="C90">
+        <v>-339.0682404954744</v>
+      </c>
+      <c r="D90">
+        <v>118.7013595045256</v>
+      </c>
+      <c r="E90">
+        <v>466.7996</v>
+      </c>
+      <c r="F90">
+        <v>470.0696</v>
+      </c>
+      <c r="G90">
+        <v>12.3</v>
+      </c>
+      <c r="H90">
+        <v>530.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>11.6</v>
+      </c>
+      <c r="K90">
+        <v>2.31</v>
+      </c>
+      <c r="L90">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M90">
+        <v>86.35178551999999</v>
+      </c>
+      <c r="N90">
+        <v>-77.06178552</v>
+      </c>
+      <c r="O90">
+        <v>-16.9535928144</v>
+      </c>
+      <c r="P90">
+        <v>-60.1081927056</v>
+      </c>
+      <c r="Q90">
+        <v>-57.7981927056</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3668739762582668</v>
+      </c>
+      <c r="T90">
+        <v>7.575719835980229</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02366830040273613</v>
+      </c>
+      <c r="W90">
+        <v>0.1793521332160174</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1075831836488005</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2035987543810873</v>
+      </c>
+      <c r="C91">
+        <v>-345.4753882469811</v>
+      </c>
+      <c r="D91">
+        <v>117.6359117530189</v>
+      </c>
+      <c r="E91">
+        <v>472.1413</v>
+      </c>
+      <c r="F91">
+        <v>475.4113</v>
+      </c>
+      <c r="G91">
+        <v>12.3</v>
+      </c>
+      <c r="H91">
+        <v>530.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>11.6</v>
+      </c>
+      <c r="K91">
+        <v>2.31</v>
+      </c>
+      <c r="L91">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M91">
+        <v>87.33305581</v>
+      </c>
+      <c r="N91">
+        <v>-78.04305581</v>
+      </c>
+      <c r="O91">
+        <v>-17.1694722782</v>
+      </c>
+      <c r="P91">
+        <v>-60.87358353179999</v>
+      </c>
+      <c r="Q91">
+        <v>-58.56358353179999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3993807013726547</v>
+      </c>
+      <c r="T91">
+        <v>8.264421639251159</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02340236444315482</v>
+      </c>
+      <c r="W91">
+        <v>0.1794009856517925</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.106374383832522</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2053427543810873</v>
+      </c>
+      <c r="C92">
+        <v>-351.8635795123429</v>
+      </c>
+      <c r="D92">
+        <v>116.5894204876571</v>
+      </c>
+      <c r="E92">
+        <v>477.483</v>
+      </c>
+      <c r="F92">
+        <v>480.753</v>
+      </c>
+      <c r="G92">
+        <v>12.3</v>
+      </c>
+      <c r="H92">
+        <v>530.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>11.6</v>
+      </c>
+      <c r="K92">
+        <v>2.31</v>
+      </c>
+      <c r="L92">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M92">
+        <v>88.3143261</v>
+      </c>
+      <c r="N92">
+        <v>-79.0243261</v>
+      </c>
+      <c r="O92">
+        <v>-17.385351742</v>
+      </c>
+      <c r="P92">
+        <v>-61.638974358</v>
+      </c>
+      <c r="Q92">
+        <v>-59.328974358</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4383887715099202</v>
+      </c>
+      <c r="T92">
+        <v>9.090863803176276</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02314233817156421</v>
+      </c>
+      <c r="W92">
+        <v>0.1794487524778837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1051924462343828</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2070867543810873</v>
+      </c>
+      <c r="C93">
+        <v>-358.2333157424066</v>
+      </c>
+      <c r="D93">
+        <v>115.5613842575934</v>
+      </c>
+      <c r="E93">
+        <v>482.8247</v>
+      </c>
+      <c r="F93">
+        <v>486.0947</v>
+      </c>
+      <c r="G93">
+        <v>12.3</v>
+      </c>
+      <c r="H93">
+        <v>530.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>11.6</v>
+      </c>
+      <c r="K93">
+        <v>2.31</v>
+      </c>
+      <c r="L93">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M93">
+        <v>89.29559639</v>
+      </c>
+      <c r="N93">
+        <v>-80.00559638999999</v>
+      </c>
+      <c r="O93">
+        <v>-17.6012312058</v>
+      </c>
+      <c r="P93">
+        <v>-62.4043651842</v>
+      </c>
+      <c r="Q93">
+        <v>-60.09436518419999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4860653016776891</v>
+      </c>
+      <c r="T93">
+        <v>10.10095978130697</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02288802676308549</v>
+      </c>
+      <c r="W93">
+        <v>0.1794954694836212</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1040364852867522</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2088307543810873</v>
+      </c>
+      <c r="C94">
+        <v>-364.5850808562803</v>
+      </c>
+      <c r="D94">
+        <v>114.5513191437197</v>
+      </c>
+      <c r="E94">
+        <v>488.1664</v>
+      </c>
+      <c r="F94">
+        <v>491.4364</v>
+      </c>
+      <c r="G94">
+        <v>12.3</v>
+      </c>
+      <c r="H94">
+        <v>530.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>11.6</v>
+      </c>
+      <c r="K94">
+        <v>2.31</v>
+      </c>
+      <c r="L94">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M94">
+        <v>90.27686668</v>
+      </c>
+      <c r="N94">
+        <v>-80.98686667999999</v>
+      </c>
+      <c r="O94">
+        <v>-17.8171106696</v>
+      </c>
+      <c r="P94">
+        <v>-63.16975601039999</v>
+      </c>
+      <c r="Q94">
+        <v>-60.85975601039999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5456609643874004</v>
+      </c>
+      <c r="T94">
+        <v>11.36357975397035</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02263924386348673</v>
+      </c>
+      <c r="W94">
+        <v>0.1795411709022775</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1029056539249398</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2105747543810873</v>
+      </c>
+      <c r="C95">
+        <v>-370.9193420008757</v>
+      </c>
+      <c r="D95">
+        <v>113.5587579991243</v>
+      </c>
+      <c r="E95">
+        <v>493.5081</v>
+      </c>
+      <c r="F95">
+        <v>496.7781</v>
+      </c>
+      <c r="G95">
+        <v>12.3</v>
+      </c>
+      <c r="H95">
+        <v>530.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>11.6</v>
+      </c>
+      <c r="K95">
+        <v>2.31</v>
+      </c>
+      <c r="L95">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M95">
+        <v>91.25813697</v>
+      </c>
+      <c r="N95">
+        <v>-81.96813696999999</v>
+      </c>
+      <c r="O95">
+        <v>-18.0329901334</v>
+      </c>
+      <c r="P95">
+        <v>-63.93514683659999</v>
+      </c>
+      <c r="Q95">
+        <v>-61.62514683659999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6222839592998862</v>
+      </c>
+      <c r="T95">
+        <v>12.98694829025183</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02239581113377182</v>
+      </c>
+      <c r="W95">
+        <v>0.1795858894947261</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1017991415171448</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2123187543810873</v>
+      </c>
+      <c r="C96">
+        <v>-377.2365502713024</v>
+      </c>
+      <c r="D96">
+        <v>112.5832497286976</v>
+      </c>
+      <c r="E96">
+        <v>498.8498</v>
+      </c>
+      <c r="F96">
+        <v>502.1198</v>
+      </c>
+      <c r="G96">
+        <v>12.3</v>
+      </c>
+      <c r="H96">
+        <v>530.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>11.6</v>
+      </c>
+      <c r="K96">
+        <v>2.31</v>
+      </c>
+      <c r="L96">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M96">
+        <v>92.23940726000001</v>
+      </c>
+      <c r="N96">
+        <v>-82.94940726000002</v>
+      </c>
+      <c r="O96">
+        <v>-18.2488695972</v>
+      </c>
+      <c r="P96">
+        <v>-64.70053766280002</v>
+      </c>
+      <c r="Q96">
+        <v>-62.39053766280001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7244479525165343</v>
+      </c>
+      <c r="T96">
+        <v>15.15143967196047</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02215755782383808</v>
+      </c>
+      <c r="W96">
+        <v>0.179629656627761</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1007161719265366</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2140627543810874</v>
+      </c>
+      <c r="C97">
+        <v>-383.537141394448</v>
+      </c>
+      <c r="D97">
+        <v>111.624358605552</v>
+      </c>
+      <c r="E97">
+        <v>504.1915</v>
+      </c>
+      <c r="F97">
+        <v>507.4615</v>
+      </c>
+      <c r="G97">
+        <v>12.3</v>
+      </c>
+      <c r="H97">
+        <v>530.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>11.6</v>
+      </c>
+      <c r="K97">
+        <v>2.31</v>
+      </c>
+      <c r="L97">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M97">
+        <v>93.22067755</v>
+      </c>
+      <c r="N97">
+        <v>-83.93067755000001</v>
+      </c>
+      <c r="O97">
+        <v>-18.464749061</v>
+      </c>
+      <c r="P97">
+        <v>-65.46592848900001</v>
+      </c>
+      <c r="Q97">
+        <v>-63.155928489</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8674775430198415</v>
+      </c>
+      <c r="T97">
+        <v>18.18172760635257</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02192432037306083</v>
+      </c>
+      <c r="W97">
+        <v>0.1796725023474687</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.09965600169573097</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2158067543810873</v>
+      </c>
+      <c r="C98">
+        <v>-389.8215363779196</v>
+      </c>
+      <c r="D98">
+        <v>110.6816636220804</v>
+      </c>
+      <c r="E98">
+        <v>509.5332</v>
+      </c>
+      <c r="F98">
+        <v>512.8031999999999</v>
+      </c>
+      <c r="G98">
+        <v>12.3</v>
+      </c>
+      <c r="H98">
+        <v>530.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>11.6</v>
+      </c>
+      <c r="K98">
+        <v>2.31</v>
+      </c>
+      <c r="L98">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M98">
+        <v>94.20194783999999</v>
+      </c>
+      <c r="N98">
+        <v>-84.91194783999998</v>
+      </c>
+      <c r="O98">
+        <v>-18.6806285248</v>
+      </c>
+      <c r="P98">
+        <v>-66.23131931519998</v>
+      </c>
+      <c r="Q98">
+        <v>-63.92131931519998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.082021928774799</v>
+      </c>
+      <c r="T98">
+        <v>22.72715950794067</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02169594203584145</v>
+      </c>
+      <c r="W98">
+        <v>0.1797144554480159</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.09861791834473399</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2175507543810873</v>
+      </c>
+      <c r="C99">
+        <v>-396.0901421263793</v>
+      </c>
+      <c r="D99">
+        <v>109.7547578736206</v>
+      </c>
+      <c r="E99">
+        <v>514.8748999999999</v>
+      </c>
+      <c r="F99">
+        <v>518.1448999999999</v>
+      </c>
+      <c r="G99">
+        <v>12.3</v>
+      </c>
+      <c r="H99">
+        <v>530.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>11.6</v>
+      </c>
+      <c r="K99">
+        <v>2.31</v>
+      </c>
+      <c r="L99">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M99">
+        <v>95.18321812999999</v>
+      </c>
+      <c r="N99">
+        <v>-85.89321812999998</v>
+      </c>
+      <c r="O99">
+        <v>-18.8965079886</v>
+      </c>
+      <c r="P99">
+        <v>-66.99671014139999</v>
+      </c>
+      <c r="Q99">
+        <v>-64.68671014139998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.439595905033066</v>
+      </c>
+      <c r="T99">
+        <v>30.30287934392089</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02147227253031732</v>
+      </c>
+      <c r="W99">
+        <v>0.1797555435361807</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.09760123877416971</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2192947543810873</v>
+      </c>
+      <c r="C100">
+        <v>-402.3433520271659</v>
+      </c>
+      <c r="D100">
+        <v>108.8432479728341</v>
+      </c>
+      <c r="E100">
+        <v>520.2166</v>
+      </c>
+      <c r="F100">
+        <v>523.4866</v>
+      </c>
+      <c r="G100">
+        <v>12.3</v>
+      </c>
+      <c r="H100">
+        <v>530.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>11.6</v>
+      </c>
+      <c r="K100">
+        <v>2.31</v>
+      </c>
+      <c r="L100">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M100">
+        <v>96.16448842</v>
+      </c>
+      <c r="N100">
+        <v>-86.87448842000001</v>
+      </c>
+      <c r="O100">
+        <v>-19.1123874524</v>
+      </c>
+      <c r="P100">
+        <v>-67.76210096760001</v>
+      </c>
+      <c r="Q100">
+        <v>-65.4521009676</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.154743857549599</v>
+      </c>
+      <c r="T100">
+        <v>45.45431901588133</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02125316770857938</v>
+      </c>
+      <c r="W100">
+        <v>0.179795793091934</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.09660530776626985</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2210387543810873</v>
+      </c>
+      <c r="C101">
+        <v>-408.5815465069765</v>
+      </c>
+      <c r="D101">
+        <v>107.9467534930235</v>
+      </c>
+      <c r="E101">
+        <v>525.5582999999999</v>
+      </c>
+      <c r="F101">
+        <v>528.8282999999999</v>
+      </c>
+      <c r="G101">
+        <v>12.3</v>
+      </c>
+      <c r="H101">
+        <v>530.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>11.6</v>
+      </c>
+      <c r="K101">
+        <v>2.31</v>
+      </c>
+      <c r="L101">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M101">
+        <v>97.14575870999998</v>
+      </c>
+      <c r="N101">
+        <v>-87.85575870999998</v>
+      </c>
+      <c r="O101">
+        <v>-19.32826691619999</v>
+      </c>
+      <c r="P101">
+        <v>-68.52749179379998</v>
+      </c>
+      <c r="Q101">
+        <v>-66.21749179379998</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.300187715099197</v>
+      </c>
+      <c r="T101">
+        <v>90.90863803176266</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02103848924687656</v>
+      </c>
+      <c r="W101">
+        <v>0.1798352295253488</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.09562949657671171</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
